--- a/Test_Dezimalpunkt/Dezimalpunkt_Testergebnisse.xlsx
+++ b/Test_Dezimalpunkt/Dezimalpunkt_Testergebnisse.xlsx
@@ -4,19 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="322">
   <si>
     <t>Nutzer 1</t>
   </si>
@@ -979,6 +977,9 @@
   </si>
   <si>
     <t>0.5 Sekunden</t>
+  </si>
+  <si>
+    <t>Fehlerrate in %</t>
   </si>
 </sst>
 </file>
@@ -1408,7 +1409,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$B$105:$D$105</c:f>
+                <c:f>Sheet1!$B$108:$D$108</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -1427,9 +1428,9 @@
           </c:errBars>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$106:$D$106</c:f>
+              <c:f>Sheet1!$B$109:$D$109</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -1458,9 +1459,9 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$107:$D$107</c:f>
+              <c:f>Sheet1!$B$110:$D$110</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1493,7 +1494,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$B$109:$D$109</c:f>
+                <c:f>Sheet1!$B$112:$D$112</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -1521,9 +1522,9 @@
           </c:errBars>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$108:$D$108</c:f>
+              <c:f>Sheet1!$B$111:$D$111</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1.25</c:v>
@@ -1548,11 +1549,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="41047552"/>
-        <c:axId val="41049088"/>
+        <c:axId val="138934528"/>
+        <c:axId val="54534528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="41047552"/>
+        <c:axId val="138934528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1561,7 +1562,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41049088"/>
+        <c:crossAx val="54534528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1569,18 +1570,18 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="41049088"/>
+        <c:axId val="54534528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="#,#00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41047552"/>
+        <c:crossAx val="138934528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1640,7 +1641,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$B$308:$D$308</c:f>
+                <c:f>Sheet1!$B$311:$D$311</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -1659,9 +1660,9 @@
           </c:errBars>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$309:$D$309</c:f>
+              <c:f>Sheet1!$B$312:$D$312</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
@@ -1690,9 +1691,9 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$310:$D$310</c:f>
+              <c:f>Sheet1!$B$313:$D$313</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1.5</c:v>
@@ -1725,7 +1726,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$B$312:$D$312</c:f>
+                <c:f>Sheet1!$B$315:$D$315</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -1753,9 +1754,9 @@
           </c:errBars>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$311:$D$311</c:f>
+              <c:f>Sheet1!$B$314:$D$314</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.5</c:v>
@@ -1780,11 +1781,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="80573568"/>
-        <c:axId val="80575488"/>
+        <c:axId val="139831936"/>
+        <c:axId val="139837824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="80573568"/>
+        <c:axId val="139831936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1793,7 +1794,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80575488"/>
+        <c:crossAx val="139837824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1801,18 +1802,18 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80575488"/>
+        <c:axId val="139837824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="#,#00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80573568"/>
+        <c:crossAx val="139831936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1856,9 +1857,9 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$161:$D$161</c:f>
+              <c:f>Sheet1!$B$164:$D$164</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1879,9 +1880,9 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$162:$D$162</c:f>
+              <c:f>Sheet1!$B$165:$D$165</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1914,7 +1915,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$B$164:$D$164</c:f>
+                <c:f>Sheet1!$B$167:$D$167</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -1942,9 +1943,9 @@
           </c:errBars>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$163:$D$163</c:f>
+              <c:f>Sheet1!$B$166:$D$166</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -1969,11 +1970,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="129975040"/>
-        <c:axId val="129983232"/>
+        <c:axId val="145888768"/>
+        <c:axId val="145890304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="129975040"/>
+        <c:axId val="145888768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1982,7 +1983,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129983232"/>
+        <c:crossAx val="145890304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1990,18 +1991,18 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="129983232"/>
+        <c:axId val="145890304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="#,#00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129975040"/>
+        <c:crossAx val="145888768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2061,7 +2062,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$B$125:$D$125</c:f>
+                <c:f>Sheet1!$B$128:$D$128</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -2080,9 +2081,9 @@
           </c:errBars>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$126:$D$126</c:f>
+              <c:f>Sheet1!$B$129:$D$129</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>2.75</c:v>
@@ -2111,9 +2112,9 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$127:$D$127</c:f>
+              <c:f>Sheet1!$B$130:$D$130</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1.25</c:v>
@@ -2146,7 +2147,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$B$129:$D$129</c:f>
+                <c:f>Sheet1!$B$132:$D$132</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -2174,9 +2175,9 @@
           </c:errBars>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$128:$D$128</c:f>
+              <c:f>Sheet1!$B$131:$D$131</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2201,11 +2202,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="80695680"/>
-        <c:axId val="80697216"/>
+        <c:axId val="54552448"/>
+        <c:axId val="54553984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="80695680"/>
+        <c:axId val="54552448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2214,7 +2215,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80697216"/>
+        <c:crossAx val="54553984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2222,18 +2223,18 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80697216"/>
+        <c:axId val="54553984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="#,#00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80695680"/>
+        <c:crossAx val="54552448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2277,9 +2278,9 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$178:$D$178</c:f>
+              <c:f>Sheet1!$B$181:$D$181</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2308,9 +2309,9 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$179:$D$179</c:f>
+              <c:f>Sheet1!$B$182:$D$182</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2343,7 +2344,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$B$181:$D$181</c:f>
+                <c:f>Sheet1!$B$184:$D$184</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -2371,9 +2372,9 @@
           </c:errBars>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$180:$D$180</c:f>
+              <c:f>Sheet1!$B$183:$D$183</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -2398,11 +2399,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="41205120"/>
-        <c:axId val="41206912"/>
+        <c:axId val="54584064"/>
+        <c:axId val="54585600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="41205120"/>
+        <c:axId val="54584064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2411,7 +2412,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41206912"/>
+        <c:crossAx val="54585600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2419,18 +2420,18 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="41206912"/>
+        <c:axId val="54585600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="#,#00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41205120"/>
+        <c:crossAx val="54584064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2493,7 +2494,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$B$195:$D$195</c:f>
+                <c:f>Sheet1!$B$198:$D$198</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -2512,9 +2513,9 @@
           </c:errBars>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$196:$D$196</c:f>
+              <c:f>Sheet1!$B$199:$D$199</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -2543,9 +2544,9 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$197:$D$197</c:f>
+              <c:f>Sheet1!$B$200:$D$200</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2578,7 +2579,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$B$195:$D$195</c:f>
+                <c:f>Sheet1!$B$198:$D$198</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -2606,9 +2607,9 @@
           </c:errBars>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$198:$D$198</c:f>
+              <c:f>Sheet1!$B$201:$D$201</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.25</c:v>
@@ -2633,11 +2634,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="146378112"/>
-        <c:axId val="146379904"/>
+        <c:axId val="131309952"/>
+        <c:axId val="131311488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="146378112"/>
+        <c:axId val="131309952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2646,7 +2647,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146379904"/>
+        <c:crossAx val="131311488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2654,18 +2655,18 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146379904"/>
+        <c:axId val="131311488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="#,#00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146378112"/>
+        <c:crossAx val="131309952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2709,9 +2710,9 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$216:$D$216</c:f>
+              <c:f>Sheet1!$B$219:$D$219</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2740,9 +2741,9 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$217:$D$217</c:f>
+              <c:f>Sheet1!$B$220:$D$220</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2775,7 +2776,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$B$219:$D$219</c:f>
+                <c:f>Sheet1!$B$222:$D$222</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -2803,9 +2804,9 @@
           </c:errBars>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$218:$D$218</c:f>
+              <c:f>Sheet1!$B$221:$D$221</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1.25</c:v>
@@ -2830,11 +2831,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="41753600"/>
-        <c:axId val="42033536"/>
+        <c:axId val="131332736"/>
+        <c:axId val="131342720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="41753600"/>
+        <c:axId val="131332736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2843,7 +2844,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42033536"/>
+        <c:crossAx val="131342720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2851,18 +2852,18 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42033536"/>
+        <c:axId val="131342720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="#,#00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41753600"/>
+        <c:crossAx val="131332736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2922,7 +2923,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$B$234:$D$234</c:f>
+                <c:f>Sheet1!$B$237:$D$237</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -2941,9 +2942,9 @@
           </c:errBars>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$235:$D$235</c:f>
+              <c:f>Sheet1!$B$238:$D$238</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -2972,9 +2973,9 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$236:$D$236</c:f>
+              <c:f>Sheet1!$B$239:$D$239</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.5</c:v>
@@ -3007,7 +3008,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$B$238:$D$238</c:f>
+                <c:f>Sheet1!$B$241:$D$241</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -3035,9 +3036,9 @@
           </c:errBars>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$237:$D$237</c:f>
+              <c:f>Sheet1!$B$240:$D$240</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.5</c:v>
@@ -3062,11 +3063,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="53712768"/>
-        <c:axId val="80702848"/>
+        <c:axId val="131364736"/>
+        <c:axId val="131366272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="53712768"/>
+        <c:axId val="131364736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3075,7 +3076,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80702848"/>
+        <c:crossAx val="131366272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3083,18 +3084,18 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80702848"/>
+        <c:axId val="131366272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="#,#00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53712768"/>
+        <c:crossAx val="131364736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3154,7 +3155,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$B$252:$D$252</c:f>
+                <c:f>Sheet1!$B$255:$D$255</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -3173,9 +3174,9 @@
           </c:errBars>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$253:$D$253</c:f>
+              <c:f>Sheet1!$B$256:$D$256</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -3204,9 +3205,9 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$254:$D$254</c:f>
+              <c:f>Sheet1!$B$257:$D$257</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -3239,7 +3240,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$B$256:$D$256</c:f>
+                <c:f>Sheet1!$B$259:$D$259</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -3267,9 +3268,9 @@
           </c:errBars>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$255:$D$255</c:f>
+              <c:f>Sheet1!$B$258:$D$258</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.25</c:v>
@@ -3294,11 +3295,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="42399232"/>
-        <c:axId val="42409984"/>
+        <c:axId val="139657984"/>
+        <c:axId val="139659520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="42399232"/>
+        <c:axId val="139657984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3307,7 +3308,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42409984"/>
+        <c:crossAx val="139659520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3315,18 +3316,18 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42409984"/>
+        <c:axId val="139659520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="#,#00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42399232"/>
+        <c:crossAx val="139657984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3386,7 +3387,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$B$271:$D$271</c:f>
+                <c:f>Sheet1!$B$274:$D$274</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -3405,9 +3406,9 @@
           </c:errBars>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$272:$D$272</c:f>
+              <c:f>Sheet1!$B$275:$D$275</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3.75</c:v>
@@ -3436,9 +3437,9 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$273:$D$273</c:f>
+              <c:f>Sheet1!$B$276:$D$276</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1.25</c:v>
@@ -3471,7 +3472,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$B$275:$D$275</c:f>
+                <c:f>Sheet1!$B$278:$D$278</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -3499,9 +3500,9 @@
           </c:errBars>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$274:$D$274</c:f>
+              <c:f>Sheet1!$B$277:$D$277</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -3526,11 +3527,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="42341120"/>
-        <c:axId val="42364928"/>
+        <c:axId val="139694080"/>
+        <c:axId val="139695616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="42341120"/>
+        <c:axId val="139694080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3539,7 +3540,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42364928"/>
+        <c:crossAx val="139695616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3547,18 +3548,18 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42364928"/>
+        <c:axId val="139695616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="#,#00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42341120"/>
+        <c:crossAx val="139694080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3618,7 +3619,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$B$289:$D$289</c:f>
+                <c:f>Sheet1!$B$292:$D$292</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -3637,9 +3638,9 @@
           </c:errBars>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$290:$D$290</c:f>
+              <c:f>Sheet1!$B$293:$D$293</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -3668,9 +3669,9 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$291:$D$291</c:f>
+              <c:f>Sheet1!$B$294:$D$294</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -3703,7 +3704,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$B$293:$D$293</c:f>
+                <c:f>Sheet1!$B$296:$D$296</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -3731,9 +3732,9 @@
           </c:errBars>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$292:$D$292</c:f>
+              <c:f>Sheet1!$B$295:$D$295</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -3758,11 +3759,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="43651456"/>
-        <c:axId val="43653760"/>
+        <c:axId val="139795456"/>
+        <c:axId val="139801344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="43651456"/>
+        <c:axId val="139795456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3771,7 +3772,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43653760"/>
+        <c:crossAx val="139801344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3779,18 +3780,18 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="43653760"/>
+        <c:axId val="139801344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="#,#00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43651456"/>
+        <c:crossAx val="139795456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3818,13 +3819,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3848,13 +3849,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3878,13 +3879,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>183</xdr:row>
+      <xdr:row>186</xdr:row>
       <xdr:rowOff>33337</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3908,13 +3909,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>187</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>201</xdr:row>
+      <xdr:row>204</xdr:row>
       <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3938,13 +3939,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>206</xdr:row>
+      <xdr:row>209</xdr:row>
       <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>221</xdr:row>
+      <xdr:row>224</xdr:row>
       <xdr:rowOff>33337</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3968,13 +3969,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>225</xdr:row>
+      <xdr:row>228</xdr:row>
       <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>239</xdr:row>
+      <xdr:row>242</xdr:row>
       <xdr:rowOff>185737</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3998,13 +3999,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>244</xdr:row>
+      <xdr:row>247</xdr:row>
       <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>258</xdr:row>
+      <xdr:row>261</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4028,13 +4029,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>262</xdr:row>
+      <xdr:row>265</xdr:row>
       <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>276</xdr:row>
+      <xdr:row>279</xdr:row>
       <xdr:rowOff>176212</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4058,13 +4059,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>281</xdr:row>
+      <xdr:row>284</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>295</xdr:row>
+      <xdr:row>298</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4088,13 +4089,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>300</xdr:row>
+      <xdr:row>303</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>314</xdr:row>
+      <xdr:row>317</xdr:row>
       <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4118,13 +4119,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4434,17 +4435,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W315"/>
+  <dimension ref="A1:W318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7"/>
+    <sheetView tabSelected="1" topLeftCell="A302" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H319" sqref="H319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="17" max="17" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8851,6 +8852,35 @@
         <v>283</v>
       </c>
     </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B83" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" t="s">
+        <v>9</v>
+      </c>
+      <c r="J83" t="s">
+        <v>6</v>
+      </c>
+      <c r="L83" t="s">
+        <v>8</v>
+      </c>
+      <c r="N83" t="s">
+        <v>9</v>
+      </c>
+      <c r="R83" t="s">
+        <v>6</v>
+      </c>
+      <c r="T83" t="s">
+        <v>289</v>
+      </c>
+      <c r="V83" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84" s="62" t="s">
         <v>1</v>
@@ -8921,81 +8951,81 @@
         <v>284</v>
       </c>
       <c r="B85" s="62">
-        <f>SUM(B75,B55,B36,B16)</f>
+        <f t="shared" ref="B85:G87" si="0">SUM(B75,B55,B36,B16)</f>
         <v>6</v>
       </c>
       <c r="C85" s="62">
-        <f>SUM(C75,C55,C36,C16)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="D85" s="62">
-        <f>SUM(D75,D55,D36,D16)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E85" s="62">
-        <f>SUM(E75,E55,E36,E16)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="F85" s="62">
-        <f>SUM(F75,F55,F36,F16)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="G85" s="62">
-        <f>SUM(G75,G55,G36,G16)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="I85" s="64" t="s">
         <v>284</v>
       </c>
       <c r="J85" s="62">
-        <f>SUM(J75,J55,J36,J16)</f>
+        <f t="shared" ref="J85:O87" si="1">SUM(J75,J55,J36,J16)</f>
         <v>8</v>
       </c>
       <c r="K85" s="62">
-        <f>SUM(K75,K55,K36,K16)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="L85" s="62">
-        <f>SUM(L75,L55,L36,L16)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="M85" s="62">
-        <f>SUM(M75,M55,M36,M16)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="N85" s="62">
-        <f>SUM(N75,N55,N36,N16)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="O85" s="62">
-        <f>SUM(O75,O55,O36,O16)</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="Q85" s="64" t="s">
         <v>284</v>
       </c>
       <c r="R85" s="62">
-        <f>SUM(R75,R55,R36,R16)</f>
+        <f t="shared" ref="R85:W87" si="2">SUM(R75,R55,R36,R16)</f>
         <v>4</v>
       </c>
       <c r="S85" s="62">
-        <f>SUM(S75,S55,S36,S16)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="T85" s="62">
-        <f>SUM(T75,T55,T36,T16)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="U85" s="62">
-        <f>SUM(U75,U55,U36,U16)</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="V85" s="62">
-        <f>SUM(V75,V55,V36,V16)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="W85" s="62">
-        <f>SUM(W75,W55,W36,W16)</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
     </row>
@@ -9004,81 +9034,81 @@
         <v>285</v>
       </c>
       <c r="B86" s="62">
-        <f>SUM(B76,B56,B37,B17)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C86" s="62">
-        <f>SUM(C76,C56,C37,C17)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D86" s="62">
-        <f>SUM(D76,D56,D37,D17)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E86" s="62">
-        <f>SUM(E76,E56,E37,E17)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F86" s="62">
-        <f>SUM(F76,F56,F37,F17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G86" s="62">
-        <f>SUM(G76,G56,G37,G17)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I86" s="65" t="s">
         <v>285</v>
       </c>
       <c r="J86" s="62">
-        <f>SUM(J76,J56,J37,J17)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K86" s="62">
-        <f>SUM(K76,K56,K37,K17)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L86" s="62">
-        <f>SUM(L76,L56,L37,L17)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M86" s="62">
-        <f>SUM(M76,M56,M37,M17)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N86" s="62">
-        <f>SUM(N76,N56,N37,N17)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O86" s="62">
-        <f>SUM(O76,O56,O37,O17)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q86" s="65" t="s">
         <v>285</v>
       </c>
       <c r="R86" s="62">
-        <f>SUM(R76,R56,R37,R17)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="S86" s="62">
-        <f>SUM(S76,S56,S37,S17)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="T86" s="62">
-        <f>SUM(T76,T56,T37,T17)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U86" s="62">
-        <f>SUM(U76,U56,U37,U17)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="V86" s="62">
-        <f>SUM(V76,V56,V37,V17)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="W86" s="62">
-        <f>SUM(W76,W56,W37,W17)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -9087,4855 +9117,5164 @@
         <v>286</v>
       </c>
       <c r="B87" s="62">
-        <f>SUM(B77,B57,B38,B18)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C87" s="62">
-        <f>SUM(C77,C57,C38,C18)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D87" s="62">
-        <f>SUM(D77,D57,D38,D18)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E87" s="62">
-        <f>SUM(E77,E57,E38,E18)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F87" s="62">
-        <f>SUM(F77,F57,F38,F18)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G87" s="62">
-        <f>SUM(G77,G57,G38,G18)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I87" s="66" t="s">
         <v>286</v>
       </c>
       <c r="J87" s="62">
-        <f>SUM(J77,J57,J38,J18)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K87" s="62">
-        <f>SUM(K77,K57,K38,K18)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="L87" s="62">
-        <f>SUM(L77,L57,L38,L18)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="M87" s="62">
-        <f>SUM(M77,M57,M38,M18)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="N87" s="62">
-        <f>SUM(N77,N57,N38,N18)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="O87" s="62">
-        <f>SUM(O77,O57,O38,O18)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="Q87" s="66" t="s">
         <v>286</v>
       </c>
       <c r="R87" s="62">
-        <f>SUM(R77,R57,R38,R18)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="S87" s="62">
-        <f>SUM(S77,S57,S38,S18)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="T87" s="62">
-        <f>SUM(T77,T57,T38,T18)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="U87" s="62">
-        <f>SUM(U77,U57,U38,U18)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="V87" s="62">
-        <f>SUM(V77,V57,V38,V18)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W87" s="62">
-        <f>SUM(W77,W57,W38,W18)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A89" s="62" t="s">
+    <row r="88" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="56">
+        <v>24</v>
+      </c>
+      <c r="B88" s="1">
+        <f>(B85/A88)*100</f>
+        <v>25</v>
+      </c>
+      <c r="C88" s="1">
+        <f>(C85/A88)*100</f>
+        <v>50</v>
+      </c>
+      <c r="D88" s="1">
+        <f>(D85/A88)*100</f>
+        <v>41.666666666666671</v>
+      </c>
+      <c r="E88" s="1">
+        <f>(E85/A88)*100</f>
+        <v>58.333333333333336</v>
+      </c>
+      <c r="F88" s="1">
+        <f>(F85/A88)*100</f>
+        <v>29.166666666666668</v>
+      </c>
+      <c r="G88" s="1">
+        <f>(G85/A88)*100</f>
+        <v>62.5</v>
+      </c>
+      <c r="H88" s="30"/>
+      <c r="I88" s="56">
+        <v>24</v>
+      </c>
+      <c r="J88" s="1">
+        <f>(J85/I88)*100</f>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="K88" s="1">
+        <f>(K85/I88)*100</f>
+        <v>75</v>
+      </c>
+      <c r="L88" s="1">
+        <f>(L85/I88)*100</f>
+        <v>37.5</v>
+      </c>
+      <c r="M88" s="1">
+        <f>(M85/I88)*100</f>
+        <v>79.166666666666657</v>
+      </c>
+      <c r="N88" s="1">
+        <f>(N85/I88)*100</f>
+        <v>37.5</v>
+      </c>
+      <c r="O88" s="1">
+        <f>(O85/I88)*100</f>
+        <v>70.833333333333343</v>
+      </c>
+      <c r="P88" s="30"/>
+      <c r="Q88" s="56">
+        <v>24</v>
+      </c>
+      <c r="R88" s="1">
+        <f>(R85/Q88)*100</f>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="S88" s="1">
+        <f>(S85/Q88)*100</f>
+        <v>45.833333333333329</v>
+      </c>
+      <c r="T88" s="1">
+        <f>(T85/Q88)*100</f>
+        <v>25</v>
+      </c>
+      <c r="U88" s="1">
+        <f>(U85/Q88)*100</f>
+        <v>70.833333333333343</v>
+      </c>
+      <c r="V88" s="1">
+        <f>(V85/Q88)*100</f>
+        <v>37.5</v>
+      </c>
+      <c r="W88" s="1">
+        <f>(W85/Q88)*100</f>
+        <v>70.833333333333343</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="56" t="s">
+        <v>321</v>
+      </c>
+      <c r="B89" s="1">
+        <f>(B86/A88)*100</f>
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="C89" s="1">
+        <f>(C86/A88)*100</f>
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="D89" s="1">
+        <f>(D86/A88)*100</f>
+        <v>8.3333333333333321</v>
+      </c>
+      <c r="E89" s="1">
+        <f>(E86/A88)*100</f>
+        <v>8.3333333333333321</v>
+      </c>
+      <c r="F89" s="1">
+        <f>(F86/A88)*100</f>
+        <v>0</v>
+      </c>
+      <c r="G89" s="1">
+        <f>(G86/A88)*100</f>
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="H89" s="30"/>
+      <c r="I89" s="56" t="s">
+        <v>321</v>
+      </c>
+      <c r="J89" s="1">
+        <f>(J86/I88)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K89" s="1">
+        <f>(K86/I88)*100</f>
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="L89" s="1">
+        <f>(L86/I88)*100</f>
+        <v>0</v>
+      </c>
+      <c r="M89" s="1">
+        <f>(M86/I88)*100</f>
+        <v>0</v>
+      </c>
+      <c r="N89" s="1">
+        <f>(N86/I88)*100</f>
+        <v>0</v>
+      </c>
+      <c r="O89" s="1">
+        <f>(O86/I88)*100</f>
+        <v>0</v>
+      </c>
+      <c r="P89" s="30"/>
+      <c r="Q89" s="56" t="s">
+        <v>321</v>
+      </c>
+      <c r="R89" s="1">
+        <f>(R86/Q88)*100</f>
+        <v>8.3333333333333321</v>
+      </c>
+      <c r="S89" s="1">
+        <f>(S86/Q88)*100</f>
+        <v>12.5</v>
+      </c>
+      <c r="T89" s="1">
+        <f>(T86/Q88)*100</f>
+        <v>0</v>
+      </c>
+      <c r="U89" s="1">
+        <f>(U86/Q88)*100</f>
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="V89" s="1">
+        <f>(V86/Q88)*100</f>
+        <v>8.3333333333333321</v>
+      </c>
+      <c r="W89" s="1">
+        <f>(W86/Q88)*100</f>
+        <v>8.3333333333333321</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="56"/>
+      <c r="B90" s="1">
+        <f>(B87/A88)*100</f>
+        <v>12.5</v>
+      </c>
+      <c r="C90" s="1">
+        <f>(C87/A88)*100</f>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="D90" s="1">
+        <f>(D87/A88)*100</f>
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="E90" s="1">
+        <f>(E87/A88)*100</f>
+        <v>12.5</v>
+      </c>
+      <c r="F90" s="1">
+        <f>(F87/A88)*100</f>
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="G90" s="1">
+        <f>(G87/A88)*100</f>
+        <v>20.833333333333336</v>
+      </c>
+      <c r="H90" s="30"/>
+      <c r="I90" s="56"/>
+      <c r="J90" s="1">
+        <f>(J87/I88)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K90" s="1">
+        <f>(K87/I88)*100</f>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="L90" s="1">
+        <f>(L87/I88)*100</f>
+        <v>20.833333333333336</v>
+      </c>
+      <c r="M90" s="1">
+        <f>(M87/I88)*100</f>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="N90" s="1">
+        <f>(N87/I88)*100</f>
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="O90" s="1">
+        <f>(O87/I88)*100</f>
+        <v>12.5</v>
+      </c>
+      <c r="P90" s="30"/>
+      <c r="Q90" s="56"/>
+      <c r="R90" s="1">
+        <f>(R87/Q88)*100</f>
+        <v>8.3333333333333321</v>
+      </c>
+      <c r="S90" s="1">
+        <f>(S87/Q88)*100</f>
+        <v>20.833333333333336</v>
+      </c>
+      <c r="T90" s="1">
+        <f>(T87/Q88)*100</f>
+        <v>8.3333333333333321</v>
+      </c>
+      <c r="U90" s="1">
+        <f>(U87/Q88)*100</f>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="V90" s="1">
+        <f>(V87/Q88)*100</f>
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="W90" s="1">
+        <f>(W87/Q88)*100</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A92" s="62" t="s">
         <v>290</v>
       </c>
-      <c r="B89" s="62" t="s">
+      <c r="B92" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C89" s="63" t="s">
+      <c r="C92" s="63" t="s">
         <v>287</v>
       </c>
-      <c r="D89" s="62" t="s">
+      <c r="D92" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="E89" s="63" t="s">
+      <c r="E92" s="63" t="s">
         <v>287</v>
       </c>
-      <c r="F89" s="62" t="s">
+      <c r="F92" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="G89" s="63" t="s">
+      <c r="G92" s="63" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A90" s="64" t="s">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A93" s="64" t="s">
         <v>284</v>
       </c>
-      <c r="B90" s="62">
-        <f>SUM(B85,J85,R85)</f>
+      <c r="B93" s="62">
+        <f t="shared" ref="B93:G95" si="3">SUM(B85,J85,R85)</f>
         <v>18</v>
       </c>
-      <c r="C90" s="62">
-        <f>SUM(C85,K85,S85)</f>
+      <c r="C93" s="62">
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="D90" s="62">
-        <f>SUM(D85,L85,T85)</f>
+      <c r="D93" s="62">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="E90" s="62">
-        <f>SUM(E85,M85,U85)</f>
+      <c r="E93" s="62">
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="F90" s="62">
-        <f>SUM(F85,N85,V85)</f>
+      <c r="F93" s="62">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="G90" s="62">
-        <f>SUM(G85,O85,W85)</f>
+      <c r="G93" s="62">
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A91" s="65" t="s">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A94" s="65" t="s">
         <v>285</v>
       </c>
-      <c r="B91" s="62">
-        <f>SUM(B86,J86,R86)</f>
+      <c r="B94" s="62">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="C91" s="62">
-        <f>SUM(C86,K86,S86)</f>
+      <c r="C94" s="62">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="D91" s="62">
-        <f>SUM(D86,L86,T86)</f>
+      <c r="D94" s="62">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="E91" s="62">
-        <f>SUM(E86,M86,U86)</f>
+      <c r="E94" s="62">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="F91" s="62">
-        <f>SUM(F86,N86,V86)</f>
+      <c r="F94" s="62">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="G91" s="62">
-        <f>SUM(G86,O86,W86)</f>
+      <c r="G94" s="62">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A92" s="66" t="s">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A95" s="66" t="s">
         <v>286</v>
       </c>
-      <c r="B92" s="62">
-        <f>SUM(B87,J87,R87)</f>
+      <c r="B95" s="62">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="C92" s="62">
-        <f>SUM(C87,K87,S87)</f>
+      <c r="C95" s="62">
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="D92" s="62">
-        <f>SUM(D87,L87,T87)</f>
+      <c r="D95" s="62">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="E92" s="62">
-        <f>SUM(E87,M87,U87)</f>
+      <c r="E95" s="62">
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="F92" s="62">
-        <f>SUM(F87,N87,V87)</f>
+      <c r="F95" s="62">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="G92" s="62">
-        <f>SUM(G87,O87,W87)</f>
+      <c r="G95" s="62">
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
     </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>72</v>
+      </c>
+      <c r="B96">
+        <f>(B93/A96)*100</f>
+        <v>25</v>
+      </c>
+      <c r="C96" s="1">
+        <f>(C93/A96)*100</f>
+        <v>56.944444444444443</v>
+      </c>
+      <c r="D96" s="1">
+        <f>(D93/A96)*100</f>
+        <v>34.722222222222221</v>
+      </c>
+      <c r="E96" s="1">
+        <f>(E93/A96)*100</f>
+        <v>69.444444444444443</v>
+      </c>
+      <c r="F96" s="1">
+        <f>(F93/A96)*100</f>
+        <v>34.722222222222221</v>
+      </c>
+      <c r="G96" s="1">
+        <f>(G93/A96)*100</f>
+        <v>68.055555555555557</v>
+      </c>
+    </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="64" t="s">
+      <c r="A97" t="s">
+        <v>321</v>
+      </c>
+      <c r="B97">
+        <f>(B94/A96)*100</f>
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="C97" s="1">
+        <f>(C94/A96)*100</f>
+        <v>6.9444444444444446</v>
+      </c>
+      <c r="D97" s="1">
+        <f>(D94/A96)*100</f>
+        <v>2.7777777777777777</v>
+      </c>
+      <c r="E97" s="1">
+        <f>(E94/A96)*100</f>
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="F97" s="1">
+        <f>(F94/A96)*100</f>
+        <v>2.7777777777777777</v>
+      </c>
+      <c r="G97" s="1">
+        <f>(G94/A96)*100</f>
+        <v>4.1666666666666661</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <f>(B95/A96)*100</f>
+        <v>6.9444444444444446</v>
+      </c>
+      <c r="C98" s="1">
+        <f>(C95/A96)*100</f>
+        <v>18.055555555555554</v>
+      </c>
+      <c r="D98" s="1">
+        <f>(D95/A96)*100</f>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="E98" s="1">
+        <f>(E95/A96)*100</f>
+        <v>15.277777777777779</v>
+      </c>
+      <c r="F98" s="1">
+        <f>(F95/A96)*100</f>
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="G98" s="1">
+        <f>(G95/A96)*100</f>
+        <v>15.277777777777779</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="64" t="s">
         <v>288</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F100" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="62" t="s">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="62" t="s">
         <v>291</v>
       </c>
-      <c r="B98" s="67" t="s">
+      <c r="B101" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="C98" s="67" t="s">
+      <c r="C101" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="D98" s="62" t="s">
+      <c r="D101" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F101" t="s">
         <v>6</v>
       </c>
-      <c r="G98" t="s">
+      <c r="G101" t="s">
         <v>289</v>
       </c>
-      <c r="H98" t="s">
+      <c r="H101" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="62" t="s">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="62" t="s">
         <v>292</v>
       </c>
-      <c r="B99" s="68">
-        <f>MIN(F99:F110)</f>
-        <v>0</v>
-      </c>
-      <c r="C99" s="68">
-        <f>MIN(G99:G110)</f>
-        <v>0</v>
-      </c>
-      <c r="D99" s="68">
-        <f>MIN(H99:H110)</f>
-        <v>0</v>
-      </c>
-      <c r="F99">
+      <c r="B102" s="68">
+        <f>MIN(F102:F113)</f>
+        <v>0</v>
+      </c>
+      <c r="C102" s="68">
+        <f>MIN(G102:G113)</f>
+        <v>0</v>
+      </c>
+      <c r="D102" s="68">
+        <f>MIN(H102:H113)</f>
+        <v>0</v>
+      </c>
+      <c r="F102">
         <f>B16</f>
         <v>1</v>
       </c>
-      <c r="G99">
+      <c r="G102">
         <f>D16</f>
         <v>2</v>
       </c>
-      <c r="H99">
+      <c r="H102">
         <f>F16</f>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="62" t="s">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="62" t="s">
         <v>293</v>
       </c>
-      <c r="B100" s="68">
-        <f>QUARTILE(F99:F110,1)</f>
-        <v>1</v>
-      </c>
-      <c r="C100" s="68">
-        <f>QUARTILE(G99:G110,1)</f>
-        <v>1</v>
-      </c>
-      <c r="D100" s="68">
-        <f>QUARTILE(H99:H110,1)</f>
-        <v>1</v>
-      </c>
-      <c r="F100">
+      <c r="B103" s="68">
+        <f>QUARTILE(F102:F113,1)</f>
+        <v>1</v>
+      </c>
+      <c r="C103" s="68">
+        <f>QUARTILE(G102:G113,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D103" s="68">
+        <f>QUARTILE(H102:H113,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F103">
         <f>B36</f>
         <v>1</v>
       </c>
-      <c r="G100">
+      <c r="G103">
         <f>D36</f>
         <v>0</v>
       </c>
-      <c r="H100">
+      <c r="H103">
         <f>F36</f>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="62" t="s">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="62" t="s">
         <v>294</v>
       </c>
-      <c r="B101" s="68">
-        <f>MEDIAN(F99:F110)</f>
-        <v>1</v>
-      </c>
-      <c r="C101" s="68">
-        <f>MEDIAN(G99:G110)</f>
+      <c r="B104" s="68">
+        <f>MEDIAN(F102:F113)</f>
+        <v>1</v>
+      </c>
+      <c r="C104" s="68">
+        <f>MEDIAN(G102:G113)</f>
         <v>2</v>
       </c>
-      <c r="D101" s="68">
-        <f>MEDIAN(H99:H110)</f>
+      <c r="D104" s="68">
+        <f>MEDIAN(H102:H113)</f>
         <v>2</v>
       </c>
-      <c r="F101">
+      <c r="F104">
         <f>B55</f>
         <v>1</v>
       </c>
-      <c r="G101">
+      <c r="G104">
         <f>D55</f>
         <v>4</v>
       </c>
-      <c r="H101">
+      <c r="H104">
         <f>F55</f>
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="62" t="s">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="62" t="s">
         <v>295</v>
       </c>
-      <c r="B102" s="68">
-        <f>QUARTILE(F99:F110,3)</f>
+      <c r="B105" s="68">
+        <f>QUARTILE(F102:F113,3)</f>
         <v>2.25</v>
       </c>
-      <c r="C102" s="68">
-        <f>QUARTILE(G99:G110,3)</f>
+      <c r="C105" s="68">
+        <f>QUARTILE(G102:G113,3)</f>
         <v>3.25</v>
       </c>
-      <c r="D102" s="68">
-        <f>QUARTILE(H99:H110,3)</f>
+      <c r="D105" s="68">
+        <f>QUARTILE(H102:H113,3)</f>
         <v>3</v>
       </c>
-      <c r="F102">
+      <c r="F105">
         <f>B75</f>
         <v>3</v>
       </c>
-      <c r="G102">
+      <c r="G105">
         <f>D75</f>
         <v>4</v>
       </c>
-      <c r="H102">
+      <c r="H105">
         <f>F75</f>
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="62" t="s">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="62" t="s">
         <v>296</v>
       </c>
-      <c r="B103" s="68">
-        <f>MAX(F99:F110)</f>
+      <c r="B106" s="68">
+        <f>MAX(F102:F113)</f>
         <v>3</v>
       </c>
-      <c r="C103" s="68">
-        <f>MAX(G99:G110)</f>
+      <c r="C106" s="68">
+        <f>MAX(G102:G113)</f>
         <v>4</v>
       </c>
-      <c r="D103" s="68">
-        <f>MAX(H99:H110)</f>
+      <c r="D106" s="68">
+        <f>MAX(H102:H113)</f>
         <v>4</v>
       </c>
-      <c r="F103">
+      <c r="F106">
         <f>J16</f>
         <v>1</v>
       </c>
-      <c r="G103">
+      <c r="G106">
         <f>L16</f>
         <v>2</v>
       </c>
-      <c r="H103">
+      <c r="H106">
         <f>N16</f>
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="62"/>
-      <c r="B104" s="68"/>
-      <c r="C104" s="68"/>
-      <c r="D104" s="68"/>
-      <c r="F104">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="62"/>
+      <c r="B107" s="68"/>
+      <c r="C107" s="68"/>
+      <c r="D107" s="68"/>
+      <c r="F107">
         <f>J36</f>
         <v>2</v>
       </c>
-      <c r="G104">
+      <c r="G107">
         <f>L36</f>
         <v>4</v>
       </c>
-      <c r="H104">
+      <c r="H107">
         <f>N36</f>
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="62" t="s">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="62" t="s">
         <v>297</v>
       </c>
-      <c r="B105" s="68">
-        <f>B100-B99</f>
-        <v>1</v>
-      </c>
-      <c r="C105" s="68">
-        <f>C100-C99</f>
-        <v>1</v>
-      </c>
-      <c r="D105" s="68">
-        <f>D100-D99</f>
-        <v>1</v>
-      </c>
-      <c r="F105">
+      <c r="B108" s="68">
+        <f>B103-B102</f>
+        <v>1</v>
+      </c>
+      <c r="C108" s="68">
+        <f>C103-C102</f>
+        <v>1</v>
+      </c>
+      <c r="D108" s="68">
+        <f>D103-D102</f>
+        <v>1</v>
+      </c>
+      <c r="F108">
         <f>J55</f>
         <v>2</v>
       </c>
-      <c r="G105">
+      <c r="G108">
         <f>L55</f>
         <v>1</v>
       </c>
-      <c r="H105">
+      <c r="H108">
         <f>N55</f>
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="62" t="str">
-        <f>A100</f>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="62" t="str">
+        <f>A103</f>
         <v>Q1</v>
       </c>
-      <c r="B106" s="68">
-        <f>B100</f>
-        <v>1</v>
-      </c>
-      <c r="C106" s="68">
-        <f>C100</f>
-        <v>1</v>
-      </c>
-      <c r="D106" s="68">
-        <f>D100</f>
-        <v>1</v>
-      </c>
-      <c r="F106">
+      <c r="B109" s="68">
+        <f>B103</f>
+        <v>1</v>
+      </c>
+      <c r="C109" s="68">
+        <f>C103</f>
+        <v>1</v>
+      </c>
+      <c r="D109" s="68">
+        <f>D103</f>
+        <v>1</v>
+      </c>
+      <c r="F109">
         <f>J75</f>
         <v>3</v>
       </c>
-      <c r="G106">
+      <c r="G109">
         <f>L75</f>
         <v>2</v>
       </c>
-      <c r="H106">
+      <c r="H109">
         <f>N75</f>
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="62" t="s">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="62" t="s">
         <v>298</v>
       </c>
-      <c r="B107" s="68">
-        <f t="shared" ref="B107:C109" si="0">B101-B100</f>
-        <v>0</v>
-      </c>
-      <c r="C107" s="68">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D107" s="68">
-        <f t="shared" ref="D107" si="1">D101-D100</f>
-        <v>1</v>
-      </c>
-      <c r="F107">
+      <c r="B110" s="68">
+        <f t="shared" ref="B110:C112" si="4">B104-B103</f>
+        <v>0</v>
+      </c>
+      <c r="C110" s="68">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D110" s="68">
+        <f t="shared" ref="D110" si="5">D104-D103</f>
+        <v>1</v>
+      </c>
+      <c r="F110">
         <f>R16</f>
         <v>0</v>
       </c>
-      <c r="G107">
+      <c r="G110">
         <f>T16</f>
         <v>0</v>
       </c>
-      <c r="H107">
+      <c r="H110">
         <f>V16</f>
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="62" t="s">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="62" t="s">
         <v>299</v>
       </c>
-      <c r="B108" s="68">
-        <f t="shared" si="0"/>
+      <c r="B111" s="68">
+        <f t="shared" si="4"/>
         <v>1.25</v>
       </c>
-      <c r="C108" s="68">
-        <f t="shared" si="0"/>
+      <c r="C111" s="68">
+        <f t="shared" si="4"/>
         <v>1.25</v>
       </c>
-      <c r="D108" s="68">
-        <f t="shared" ref="D108" si="2">D102-D101</f>
-        <v>1</v>
-      </c>
-      <c r="F108">
+      <c r="D111" s="68">
+        <f t="shared" ref="D111" si="6">D105-D104</f>
+        <v>1</v>
+      </c>
+      <c r="F111">
         <f>R36</f>
         <v>1</v>
       </c>
-      <c r="G108">
+      <c r="G111">
         <f>T36</f>
         <v>1</v>
       </c>
-      <c r="H108">
+      <c r="H111">
         <f>V36</f>
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="62" t="s">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="62" t="s">
         <v>300</v>
       </c>
-      <c r="B109" s="68">
-        <f t="shared" si="0"/>
+      <c r="B112" s="68">
+        <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
-      <c r="C109" s="68">
-        <f t="shared" si="0"/>
+      <c r="C112" s="68">
+        <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
-      <c r="D109" s="68">
-        <f t="shared" ref="D109" si="3">D103-D102</f>
-        <v>1</v>
-      </c>
-      <c r="F109">
+      <c r="D112" s="68">
+        <f t="shared" ref="D112" si="7">D106-D105</f>
+        <v>1</v>
+      </c>
+      <c r="F112">
         <f>R55</f>
         <v>0</v>
       </c>
-      <c r="G109">
+      <c r="G112">
         <f>T55</f>
         <v>3</v>
       </c>
-      <c r="H109">
+      <c r="H112">
         <f>V55</f>
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F110">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F113">
         <f>R75</f>
         <v>3</v>
       </c>
-      <c r="G110">
+      <c r="G113">
         <f>T75</f>
         <v>2</v>
       </c>
-      <c r="H110">
+      <c r="H113">
         <f>V75</f>
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F111" t="s">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F114" t="s">
         <v>317</v>
       </c>
-      <c r="G111" t="s">
+      <c r="G114" t="s">
         <v>316</v>
       </c>
-      <c r="H111" t="s">
+      <c r="H114" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E112" s="1" t="s">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E115" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="F112">
-        <f>TTEST(F99:F110,H99:H110,1,1)</f>
-        <v>0.14041283057055054</v>
-      </c>
-      <c r="G112">
-        <f>TTEST(F99:F110,G99:G110,1,1)</f>
-        <v>0.10321978363726679</v>
-      </c>
-      <c r="H112">
-        <f>TTEST(H99:H110,G99:G110,1,1)</f>
+      <c r="F115">
+        <f>TTEST(F102:F113,H102:H113,1,3)</f>
+        <v>0.13141832472325291</v>
+      </c>
+      <c r="G115">
+        <f>TTEST(F102:F113,G102:G113,1,3)</f>
+        <v>0.13820602662875586</v>
+      </c>
+      <c r="H115">
+        <f>TTEST(H102:H113,G102:G113,1,3)</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L113" t="s">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L116" t="s">
         <v>302</v>
       </c>
-      <c r="N113" t="s">
+      <c r="N116" t="s">
         <v>303</v>
       </c>
-      <c r="P113" t="s">
+      <c r="P116" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A115" s="64" t="s">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A118" s="64" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F117" s="1" t="s">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F120" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="G117" s="1"/>
-      <c r="H117" s="1"/>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A118" s="62" t="s">
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A121" s="62" t="s">
         <v>320</v>
       </c>
-      <c r="B118" s="67" t="s">
+      <c r="B121" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="C118" s="67" t="s">
+      <c r="C121" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="D118" s="62" t="s">
+      <c r="D121" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="F118" s="1" t="s">
+      <c r="F121" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G118" s="1" t="s">
+      <c r="G121" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="H118" s="1" t="s">
+      <c r="H121" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A119" s="62" t="s">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A122" s="62" t="s">
         <v>292</v>
       </c>
-      <c r="B119" s="68">
-        <f>MIN(F119:F130)</f>
-        <v>1</v>
-      </c>
-      <c r="C119" s="68">
-        <f>MIN(G119:G130)</f>
-        <v>1</v>
-      </c>
-      <c r="D119" s="68">
-        <f>MIN(H119:H130)</f>
-        <v>1</v>
-      </c>
-      <c r="F119" s="1">
+      <c r="B122" s="68">
+        <f>MIN(F122:F133)</f>
+        <v>1</v>
+      </c>
+      <c r="C122" s="68">
+        <f>MIN(G122:G133)</f>
+        <v>1</v>
+      </c>
+      <c r="D122" s="68">
+        <f>MIN(H122:H133)</f>
+        <v>1</v>
+      </c>
+      <c r="F122" s="1">
         <f>C16</f>
         <v>3</v>
       </c>
-      <c r="G119" s="1">
+      <c r="G122" s="1">
         <f>E16</f>
         <v>3</v>
       </c>
-      <c r="H119" s="1">
+      <c r="H122" s="1">
         <f>G16</f>
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A120" s="62" t="s">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A123" s="62" t="s">
         <v>293</v>
       </c>
-      <c r="B120" s="68">
-        <f>QUARTILE(F119:F130,1)</f>
+      <c r="B123" s="68">
+        <f>QUARTILE(F122:F133,1)</f>
         <v>2.75</v>
       </c>
-      <c r="C120" s="68">
-        <f>QUARTILE(G119:G130,1)</f>
+      <c r="C123" s="68">
+        <f>QUARTILE(G122:G133,1)</f>
         <v>3.75</v>
       </c>
-      <c r="D120" s="68">
-        <f>QUARTILE(H119:H130,1)</f>
+      <c r="D123" s="68">
+        <f>QUARTILE(H122:H133,1)</f>
         <v>3.75</v>
       </c>
-      <c r="F120" s="1">
+      <c r="F123" s="1">
         <f>C36</f>
         <v>1</v>
       </c>
-      <c r="G120" s="1">
+      <c r="G123" s="1">
         <f>E36</f>
         <v>1</v>
       </c>
-      <c r="H120" s="1">
+      <c r="H123" s="1">
         <f>G36</f>
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A121" s="62" t="s">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A124" s="62" t="s">
         <v>294</v>
       </c>
-      <c r="B121" s="68">
-        <f>MEDIAN(F119:F130)</f>
+      <c r="B124" s="68">
+        <f>MEDIAN(F122:F133)</f>
         <v>4</v>
       </c>
-      <c r="C121" s="68">
-        <f>MEDIAN(G119:G130)</f>
+      <c r="C124" s="68">
+        <f>MEDIAN(G122:G133)</f>
         <v>4</v>
       </c>
-      <c r="D121" s="68">
-        <f>MEDIAN(H119:H130)</f>
+      <c r="D124" s="68">
+        <f>MEDIAN(H122:H133)</f>
         <v>4</v>
       </c>
-      <c r="F121" s="1">
+      <c r="F124" s="1">
         <f>C55</f>
         <v>4</v>
       </c>
-      <c r="G121" s="1">
+      <c r="G124" s="1">
         <f>E55</f>
         <v>5</v>
       </c>
-      <c r="H121" s="1">
+      <c r="H124" s="1">
         <f>G55</f>
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A122" s="62" t="s">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A125" s="62" t="s">
         <v>295</v>
       </c>
-      <c r="B122" s="68">
-        <f>QUARTILE(F119:F130,3)</f>
+      <c r="B125" s="68">
+        <f>QUARTILE(F122:F133,3)</f>
         <v>4</v>
       </c>
-      <c r="C122" s="68">
-        <f>QUARTILE(G119:G130,3)</f>
+      <c r="C125" s="68">
+        <f>QUARTILE(G122:G133,3)</f>
         <v>5</v>
       </c>
-      <c r="D122" s="68">
-        <f>QUARTILE(H119:H130,3)</f>
+      <c r="D125" s="68">
+        <f>QUARTILE(H122:H133,3)</f>
         <v>5</v>
       </c>
-      <c r="F122" s="1">
+      <c r="F125" s="1">
         <f>C75</f>
         <v>4</v>
       </c>
-      <c r="G122" s="1">
+      <c r="G125" s="1">
         <f>E75</f>
         <v>5</v>
       </c>
-      <c r="H122" s="1">
+      <c r="H125" s="1">
         <f>G75</f>
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A123" s="62" t="s">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A126" s="62" t="s">
         <v>296</v>
       </c>
-      <c r="B123" s="68">
-        <f>MAX(F119:F130)</f>
+      <c r="B126" s="68">
+        <f>MAX(F122:F133)</f>
         <v>5</v>
       </c>
-      <c r="C123" s="68">
-        <f>MAX(G119:G130)</f>
+      <c r="C126" s="68">
+        <f>MAX(G122:G133)</f>
         <v>6</v>
       </c>
-      <c r="D123" s="68">
-        <f>MAX(H119:H130)</f>
+      <c r="D126" s="68">
+        <f>MAX(H122:H133)</f>
         <v>6</v>
       </c>
-      <c r="F123" s="1">
+      <c r="F126" s="1">
         <f>K16</f>
         <v>5</v>
       </c>
-      <c r="G123" s="1">
+      <c r="G126" s="1">
         <f>M16</f>
         <v>4</v>
       </c>
-      <c r="H123" s="1">
+      <c r="H126" s="1">
         <f>O16</f>
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A124" s="62"/>
-      <c r="B124" s="68"/>
-      <c r="C124" s="68"/>
-      <c r="D124" s="68"/>
-      <c r="F124" s="1">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A127" s="62"/>
+      <c r="B127" s="68"/>
+      <c r="C127" s="68"/>
+      <c r="D127" s="68"/>
+      <c r="F127" s="1">
         <f>K36</f>
         <v>4</v>
       </c>
-      <c r="G124" s="1">
+      <c r="G127" s="1">
         <f>M36</f>
         <v>4</v>
       </c>
-      <c r="H124" s="1">
+      <c r="H127" s="1">
         <f>O36</f>
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A125" s="62" t="s">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A128" s="62" t="s">
         <v>297</v>
       </c>
-      <c r="B125" s="68">
-        <f>B120-B119</f>
+      <c r="B128" s="68">
+        <f>B123-B122</f>
         <v>1.75</v>
       </c>
-      <c r="C125" s="68">
-        <f>C120-C119</f>
+      <c r="C128" s="68">
+        <f>C123-C122</f>
         <v>2.75</v>
       </c>
-      <c r="D125" s="68">
-        <f>D120-D119</f>
+      <c r="D128" s="68">
+        <f>D123-D122</f>
         <v>2.75</v>
       </c>
-      <c r="F125" s="1">
+      <c r="F128" s="1">
         <f>K55</f>
         <v>4</v>
       </c>
-      <c r="G125" s="1">
+      <c r="G128" s="1">
         <f>M55</f>
         <v>5</v>
       </c>
-      <c r="H125" s="1">
+      <c r="H128" s="1">
         <f>O55</f>
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A126" s="62" t="str">
-        <f>A120</f>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="62" t="str">
+        <f>A123</f>
         <v>Q1</v>
       </c>
-      <c r="B126" s="68">
-        <f>B120</f>
+      <c r="B129" s="68">
+        <f>B123</f>
         <v>2.75</v>
       </c>
-      <c r="C126" s="68">
-        <f>C120</f>
+      <c r="C129" s="68">
+        <f>C123</f>
         <v>3.75</v>
       </c>
-      <c r="D126" s="68">
-        <f>D120</f>
+      <c r="D129" s="68">
+        <f>D123</f>
         <v>3.75</v>
       </c>
-      <c r="F126" s="1">
+      <c r="F129" s="1">
         <f>K75</f>
         <v>5</v>
       </c>
-      <c r="G126" s="1">
+      <c r="G129" s="1">
         <f>M75</f>
         <v>6</v>
       </c>
-      <c r="H126" s="1">
+      <c r="H129" s="1">
         <f>O75</f>
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A127" s="62" t="s">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="62" t="s">
         <v>298</v>
       </c>
-      <c r="B127" s="68">
-        <f t="shared" ref="B127:D129" si="4">B121-B120</f>
+      <c r="B130" s="68">
+        <f t="shared" ref="B130:D132" si="8">B124-B123</f>
         <v>1.25</v>
       </c>
-      <c r="C127" s="68">
-        <f t="shared" si="4"/>
+      <c r="C130" s="68">
+        <f t="shared" si="8"/>
         <v>0.25</v>
       </c>
-      <c r="D127" s="68">
-        <f t="shared" si="4"/>
+      <c r="D130" s="68">
+        <f t="shared" si="8"/>
         <v>0.25</v>
       </c>
-      <c r="F127" s="1">
+      <c r="F130" s="1">
         <f>S16</f>
         <v>4</v>
       </c>
-      <c r="G127" s="1">
+      <c r="G130" s="1">
         <f>U16</f>
         <v>3</v>
       </c>
-      <c r="H127" s="1">
+      <c r="H130" s="1">
         <f>W16</f>
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A128" s="62" t="s">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="62" t="s">
         <v>299</v>
       </c>
-      <c r="B128" s="68">
-        <f t="shared" ref="B128:C128" si="5">B122-B121</f>
-        <v>0</v>
-      </c>
-      <c r="C128" s="68">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="D128" s="68">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F128" s="1">
+      <c r="B131" s="68">
+        <f t="shared" ref="B131:C131" si="9">B125-B124</f>
+        <v>0</v>
+      </c>
+      <c r="C131" s="68">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D131" s="68">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="F131" s="1">
         <f>S36</f>
         <v>2</v>
       </c>
-      <c r="G128" s="1">
+      <c r="G131" s="1">
         <f>U36</f>
         <v>4</v>
       </c>
-      <c r="H128" s="1">
+      <c r="H131" s="1">
         <f>W36</f>
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="62" t="s">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="62" t="s">
         <v>300</v>
       </c>
-      <c r="B129" s="68">
-        <f t="shared" ref="B129:C129" si="6">B123-B122</f>
-        <v>1</v>
-      </c>
-      <c r="C129" s="68">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="D129" s="68">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F129" s="1">
+      <c r="B132" s="68">
+        <f t="shared" ref="B132:C132" si="10">B126-B125</f>
+        <v>1</v>
+      </c>
+      <c r="C132" s="68">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D132" s="68">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="F132" s="1">
         <f>S55</f>
         <v>2</v>
       </c>
-      <c r="G129" s="69">
+      <c r="G132" s="69">
         <f>U55</f>
         <v>4</v>
       </c>
-      <c r="H129" s="1">
+      <c r="H132" s="1">
         <f>W55</f>
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F130" s="1">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F133" s="1">
         <f>S75</f>
         <v>3</v>
       </c>
-      <c r="G130" s="1">
+      <c r="G133" s="1">
         <f>U75</f>
         <v>6</v>
       </c>
-      <c r="H130" s="1">
+      <c r="H133" s="1">
         <f>W75</f>
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F131" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="H131" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="49" t="s">
-        <v>306</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="F132" s="1">
-        <f>TTEST(F119:F130,H119:H130,1,1)</f>
-        <v>3.5401977534017297E-2</v>
-      </c>
-      <c r="G132" s="1">
-        <f>TTEST(F119:F130,G119:G130,1,1)</f>
-        <v>2.7919999362084211E-2</v>
-      </c>
-      <c r="H132" s="1">
-        <f>TTEST(H119:H130,G119:G130,1,1)</f>
-        <v>0.41900330985717898</v>
-      </c>
-    </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F134" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="49" t="s">
+        <v>306</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F135" s="1">
+        <f>TTEST(F122:F133,H122:H133,1,3)</f>
+        <v>0.11314166815771198</v>
+      </c>
+      <c r="G135" s="1">
+        <f>TTEST(F122:F133,G122:G133,1,3)</f>
+        <v>8.9737105657233987E-2</v>
+      </c>
+      <c r="H135" s="1">
+        <f>TTEST(H122:H133,G122:G133,1,3)</f>
+        <v>0.44234527597615247</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F137" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="G134" s="1"/>
-      <c r="H134" s="1"/>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="62" t="s">
-        <v>291</v>
-      </c>
-      <c r="B135" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="C135" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="D135" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G135" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="H135" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="62" t="s">
-        <v>292</v>
-      </c>
-      <c r="B136" s="68">
-        <f>MIN(F136:F147)</f>
-        <v>0</v>
-      </c>
-      <c r="C136" s="68">
-        <f>MIN(G136:G147)</f>
-        <v>0</v>
-      </c>
-      <c r="D136" s="68">
-        <f>MIN(H136:H147)</f>
-        <v>0</v>
-      </c>
-      <c r="F136" s="1">
-        <f>B17</f>
-        <v>0</v>
-      </c>
-      <c r="G136" s="1">
-        <f>D17</f>
-        <v>0</v>
-      </c>
-      <c r="H136" s="1">
-        <f>F17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="62" t="s">
-        <v>293</v>
-      </c>
-      <c r="B137" s="68">
-        <f>QUARTILE(F136:F147,1)</f>
-        <v>0</v>
-      </c>
-      <c r="C137" s="68">
-        <f>QUARTILE(G136:G147,1)</f>
-        <v>0</v>
-      </c>
-      <c r="D137" s="68">
-        <f>QUARTILE(H136:H147,1)</f>
-        <v>0</v>
-      </c>
-      <c r="F137" s="1">
-        <f>B37</f>
-        <v>0</v>
-      </c>
-      <c r="G137" s="1">
-        <f>D37</f>
-        <v>1</v>
-      </c>
-      <c r="H137" s="1">
-        <f>F37</f>
-        <v>0</v>
-      </c>
+      <c r="G137" s="1"/>
+      <c r="H137" s="1"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="62" t="s">
-        <v>294</v>
-      </c>
-      <c r="B138" s="68">
-        <f>MEDIAN(F136:F147)</f>
-        <v>0</v>
-      </c>
-      <c r="C138" s="68">
-        <f>MEDIAN(G136:G147)</f>
-        <v>0</v>
-      </c>
-      <c r="D138" s="68">
-        <f>MEDIAN(H136:H147)</f>
-        <v>0</v>
-      </c>
-      <c r="F138" s="1">
-        <f>B56</f>
-        <v>1</v>
-      </c>
-      <c r="G138" s="1">
-        <f>D56</f>
-        <v>1</v>
-      </c>
-      <c r="H138" s="1">
-        <f>F56</f>
-        <v>0</v>
+        <v>291</v>
+      </c>
+      <c r="B138" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C138" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="D138" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="62" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B139" s="68">
-        <f>QUARTILE(F136:F147,3)</f>
+        <f>MIN(F139:F150)</f>
         <v>0</v>
       </c>
       <c r="C139" s="68">
-        <f>QUARTILE(G136:G147,3)</f>
+        <f>MIN(G139:G150)</f>
         <v>0</v>
       </c>
       <c r="D139" s="68">
-        <f>QUARTILE(H136:H147,3)</f>
+        <f>MIN(H139:H150)</f>
         <v>0</v>
       </c>
       <c r="F139" s="1">
-        <f>B76</f>
+        <f>B17</f>
         <v>0</v>
       </c>
       <c r="G139" s="1">
-        <f>D76</f>
+        <f>D17</f>
         <v>0</v>
       </c>
       <c r="H139" s="1">
-        <f>F76</f>
+        <f>F17</f>
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="62" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B140" s="68">
-        <f>MAX(F136:F147)</f>
-        <v>2</v>
+        <f>QUARTILE(F139:F150,1)</f>
+        <v>0</v>
       </c>
       <c r="C140" s="68">
-        <f>MAX(G136:G147)</f>
-        <v>1</v>
+        <f>QUARTILE(G139:G150,1)</f>
+        <v>0</v>
       </c>
       <c r="D140" s="68">
-        <f>MAX(H136:H147)</f>
-        <v>1</v>
+        <f>QUARTILE(H139:H150,1)</f>
+        <v>0</v>
       </c>
       <c r="F140" s="1">
-        <f>J17</f>
+        <f>B37</f>
         <v>0</v>
       </c>
       <c r="G140" s="1">
-        <f>L17</f>
-        <v>0</v>
+        <f>D37</f>
+        <v>1</v>
       </c>
       <c r="H140" s="1">
-        <f>N17</f>
+        <f>F37</f>
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="62"/>
-      <c r="B141" s="68"/>
-      <c r="C141" s="68"/>
-      <c r="D141" s="68"/>
+      <c r="A141" s="62" t="s">
+        <v>294</v>
+      </c>
+      <c r="B141" s="68">
+        <f>MEDIAN(F139:F150)</f>
+        <v>0</v>
+      </c>
+      <c r="C141" s="68">
+        <f>MEDIAN(G139:G150)</f>
+        <v>0</v>
+      </c>
+      <c r="D141" s="68">
+        <f>MEDIAN(H139:H150)</f>
+        <v>0</v>
+      </c>
       <c r="F141" s="1">
-        <f>J37</f>
-        <v>0</v>
+        <f>B56</f>
+        <v>1</v>
       </c>
       <c r="G141" s="1">
-        <f>L37</f>
-        <v>0</v>
+        <f>D56</f>
+        <v>1</v>
       </c>
       <c r="H141" s="1">
-        <f>N37</f>
+        <f>F56</f>
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="62" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B142" s="68">
-        <f>B137-B136</f>
+        <f>QUARTILE(F139:F150,3)</f>
         <v>0</v>
       </c>
       <c r="C142" s="68">
-        <f>C137-C136</f>
+        <f>QUARTILE(G139:G150,3)</f>
         <v>0</v>
       </c>
       <c r="D142" s="68">
-        <f>D137-D136</f>
+        <f>QUARTILE(H139:H150,3)</f>
         <v>0</v>
       </c>
       <c r="F142" s="1">
-        <f>J56</f>
+        <f>B76</f>
         <v>0</v>
       </c>
       <c r="G142" s="1">
-        <f>L56</f>
+        <f>D76</f>
         <v>0</v>
       </c>
       <c r="H142" s="1">
-        <f>N56</f>
+        <f>F76</f>
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="62" t="str">
-        <f>A137</f>
-        <v>Q1</v>
+      <c r="A143" s="62" t="s">
+        <v>296</v>
       </c>
       <c r="B143" s="68">
-        <f>B137</f>
-        <v>0</v>
+        <f>MAX(F139:F150)</f>
+        <v>2</v>
       </c>
       <c r="C143" s="68">
-        <f>C137</f>
-        <v>0</v>
+        <f>MAX(G139:G150)</f>
+        <v>1</v>
       </c>
       <c r="D143" s="68">
-        <f>D137</f>
-        <v>0</v>
+        <f>MAX(H139:H150)</f>
+        <v>1</v>
       </c>
       <c r="F143" s="1">
-        <f>J76</f>
+        <f>J17</f>
         <v>0</v>
       </c>
       <c r="G143" s="1">
-        <f>L76</f>
+        <f>L17</f>
         <v>0</v>
       </c>
       <c r="H143" s="1">
-        <f>N76</f>
+        <f>N17</f>
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="62" t="s">
-        <v>298</v>
-      </c>
-      <c r="B144" s="68">
-        <f t="shared" ref="B144:D144" si="7">B138-B137</f>
-        <v>0</v>
-      </c>
-      <c r="C144" s="68">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D144" s="68">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="A144" s="62"/>
+      <c r="B144" s="68"/>
+      <c r="C144" s="68"/>
+      <c r="D144" s="68"/>
       <c r="F144" s="1">
-        <f>R17</f>
+        <f>J37</f>
         <v>0</v>
       </c>
       <c r="G144" s="1">
-        <f>T17</f>
+        <f>L37</f>
         <v>0</v>
       </c>
       <c r="H144" s="1">
-        <f>V17</f>
+        <f>N37</f>
         <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="62" t="s">
+        <v>297</v>
+      </c>
+      <c r="B145" s="68">
+        <f>B140-B139</f>
+        <v>0</v>
+      </c>
+      <c r="C145" s="68">
+        <f>C140-C139</f>
+        <v>0</v>
+      </c>
+      <c r="D145" s="68">
+        <f>D140-D139</f>
+        <v>0</v>
+      </c>
+      <c r="F145" s="1">
+        <f>J56</f>
+        <v>0</v>
+      </c>
+      <c r="G145" s="1">
+        <f>L56</f>
+        <v>0</v>
+      </c>
+      <c r="H145" s="1">
+        <f>N56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="62" t="str">
+        <f>A140</f>
+        <v>Q1</v>
+      </c>
+      <c r="B146" s="68">
+        <f>B140</f>
+        <v>0</v>
+      </c>
+      <c r="C146" s="68">
+        <f>C140</f>
+        <v>0</v>
+      </c>
+      <c r="D146" s="68">
+        <f>D140</f>
+        <v>0</v>
+      </c>
+      <c r="F146" s="1">
+        <f>J76</f>
+        <v>0</v>
+      </c>
+      <c r="G146" s="1">
+        <f>L76</f>
+        <v>0</v>
+      </c>
+      <c r="H146" s="1">
+        <f>N76</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="62" t="s">
+        <v>298</v>
+      </c>
+      <c r="B147" s="68">
+        <f t="shared" ref="B147:D147" si="11">B141-B140</f>
+        <v>0</v>
+      </c>
+      <c r="C147" s="68">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D147" s="68">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F147" s="1">
+        <f>R17</f>
+        <v>0</v>
+      </c>
+      <c r="G147" s="1">
+        <f>T17</f>
+        <v>0</v>
+      </c>
+      <c r="H147" s="1">
+        <f>V17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="62" t="s">
         <v>299</v>
       </c>
-      <c r="B145" s="68">
-        <f t="shared" ref="B145:D145" si="8">B139-B138</f>
-        <v>0</v>
-      </c>
-      <c r="C145" s="68">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="D145" s="68">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F145" s="1">
+      <c r="B148" s="68">
+        <f t="shared" ref="B148:D148" si="12">B142-B141</f>
+        <v>0</v>
+      </c>
+      <c r="C148" s="68">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D148" s="68">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F148" s="1">
         <f>R37</f>
         <v>0</v>
       </c>
-      <c r="G145" s="1">
+      <c r="G148" s="1">
         <f>T37</f>
         <v>0</v>
       </c>
-      <c r="H145" s="1">
+      <c r="H148" s="1">
         <f>V37</f>
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="62" t="s">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="62" t="s">
         <v>300</v>
       </c>
-      <c r="B146" s="68">
-        <f t="shared" ref="B146:D146" si="9">B140-B139</f>
+      <c r="B149" s="68">
+        <f t="shared" ref="B149:D149" si="13">B143-B142</f>
         <v>2</v>
       </c>
-      <c r="C146" s="68">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="D146" s="68">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="F146" s="1">
+      <c r="C149" s="68">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="D149" s="68">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="F149" s="1">
         <f>R56</f>
         <v>2</v>
       </c>
-      <c r="G146" s="69">
+      <c r="G149" s="69">
         <f>T56</f>
         <v>0</v>
       </c>
-      <c r="H146" s="1">
+      <c r="H149" s="1">
         <f>V56</f>
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F147" s="1">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F150" s="1">
         <f>R76</f>
         <v>0</v>
       </c>
-      <c r="G147" s="1">
+      <c r="G150" s="1">
         <f>T76</f>
         <v>0</v>
       </c>
-      <c r="H147" s="1">
+      <c r="H150" s="1">
         <f>V76</f>
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F148" s="1" t="s">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F151" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="G148" s="1" t="s">
+      <c r="G151" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="H148" s="1" t="s">
+      <c r="H151" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E149" s="1" t="s">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E152" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="F149" s="1">
-        <f>TTEST(F136:F147,H136:H147,1,1)</f>
-        <v>0.293149653460337</v>
-      </c>
-      <c r="G149" s="1">
-        <f>TTEST(F136:F147,G136:G147,1,1)</f>
-        <v>0.33711861908311291</v>
-      </c>
-      <c r="H149" s="1">
-        <f>TTEST(H136:H147,G136:G147,1,1)</f>
+      <c r="F152" s="1">
+        <f>TTEST(F139:F150,H139:H150,1,3)</f>
+        <v>0.34918666053576158</v>
+      </c>
+      <c r="G152" s="1">
+        <f>TTEST(F139:F150,G139:G150,1,3)</f>
+        <v>0.34918666053576158</v>
+      </c>
+      <c r="H152" s="1">
+        <f>TTEST(H139:H150,G139:G150,1,3)</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="49" t="s">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="49" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F152" s="1" t="s">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F155" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="G152" s="1"/>
-      <c r="H152" s="1"/>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="62" t="s">
-        <v>320</v>
-      </c>
-      <c r="B153" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="C153" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="D153" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G153" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="H153" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="62" t="s">
-        <v>292</v>
-      </c>
-      <c r="B154" s="68">
-        <f>MIN(F154:F165)</f>
-        <v>0</v>
-      </c>
-      <c r="C154" s="68">
-        <f>MIN(G154:G165)</f>
-        <v>0</v>
-      </c>
-      <c r="D154" s="68">
-        <f>MIN(H154:H165)</f>
-        <v>0</v>
-      </c>
-      <c r="F154" s="1">
-        <f>C17</f>
-        <v>0</v>
-      </c>
-      <c r="G154" s="1">
-        <f>E17</f>
-        <v>1</v>
-      </c>
-      <c r="H154" s="1">
-        <f>G17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="62" t="s">
-        <v>293</v>
-      </c>
-      <c r="B155" s="68">
-        <f>QUARTILE(F154:F165,1)</f>
-        <v>0</v>
-      </c>
-      <c r="C155" s="68">
-        <f>QUARTILE(G154:G165,1)</f>
-        <v>0</v>
-      </c>
-      <c r="D155" s="68">
-        <f>QUARTILE(H154:H165,1)</f>
-        <v>0</v>
-      </c>
-      <c r="F155" s="1">
-        <f>C37</f>
-        <v>1</v>
-      </c>
-      <c r="G155" s="1">
-        <f>E37</f>
-        <v>1</v>
-      </c>
-      <c r="H155" s="1">
-        <f>G37</f>
-        <v>1</v>
-      </c>
+      <c r="G155" s="1"/>
+      <c r="H155" s="1"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="62" t="s">
-        <v>294</v>
-      </c>
-      <c r="B156" s="68">
-        <f>MEDIAN(F154:F165)</f>
-        <v>0</v>
-      </c>
-      <c r="C156" s="68">
-        <f>MEDIAN(G154:G165)</f>
-        <v>0</v>
-      </c>
-      <c r="D156" s="68">
-        <f>MEDIAN(H154:H165)</f>
-        <v>0</v>
-      </c>
-      <c r="F156" s="1">
-        <f>C56</f>
-        <v>0</v>
-      </c>
-      <c r="G156" s="1">
-        <f>E56</f>
-        <v>0</v>
-      </c>
-      <c r="H156" s="1">
-        <f>G56</f>
-        <v>0</v>
+        <v>320</v>
+      </c>
+      <c r="B156" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C156" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="D156" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="62" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B157" s="68">
-        <f>QUARTILE(F154:F165,3)</f>
-        <v>1</v>
+        <f>MIN(F157:F168)</f>
+        <v>0</v>
       </c>
       <c r="C157" s="68">
-        <f>QUARTILE(G154:G165,3)</f>
-        <v>0.25</v>
+        <f>MIN(G157:G168)</f>
+        <v>0</v>
       </c>
       <c r="D157" s="68">
-        <f>QUARTILE(H154:H165,3)</f>
+        <f>MIN(H157:H168)</f>
         <v>0</v>
       </c>
       <c r="F157" s="1">
-        <f>C76</f>
+        <f>C17</f>
         <v>0</v>
       </c>
       <c r="G157" s="1">
-        <f>E76</f>
-        <v>0</v>
+        <f>E17</f>
+        <v>1</v>
       </c>
       <c r="H157" s="1">
-        <f>G76</f>
+        <f>G17</f>
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="62" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B158" s="68">
-        <f>MAX(F154:F165)</f>
-        <v>2</v>
+        <f>QUARTILE(F157:F168,1)</f>
+        <v>0</v>
       </c>
       <c r="C158" s="68">
-        <f>MAX(G154:G165)</f>
-        <v>1</v>
+        <f>QUARTILE(G157:G168,1)</f>
+        <v>0</v>
       </c>
       <c r="D158" s="68">
-        <f>MAX(H154:H165)</f>
-        <v>2</v>
+        <f>QUARTILE(H157:H168,1)</f>
+        <v>0</v>
       </c>
       <c r="F158" s="1">
-        <f>K17</f>
-        <v>0</v>
+        <f>C37</f>
+        <v>1</v>
       </c>
       <c r="G158" s="1">
-        <f>M17</f>
-        <v>0</v>
+        <f>E37</f>
+        <v>1</v>
       </c>
       <c r="H158" s="1">
-        <f>O17</f>
-        <v>0</v>
+        <f>G37</f>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="62"/>
-      <c r="B159" s="68"/>
-      <c r="C159" s="68"/>
-      <c r="D159" s="68"/>
+      <c r="A159" s="62" t="s">
+        <v>294</v>
+      </c>
+      <c r="B159" s="68">
+        <f>MEDIAN(F157:F168)</f>
+        <v>0</v>
+      </c>
+      <c r="C159" s="68">
+        <f>MEDIAN(G157:G168)</f>
+        <v>0</v>
+      </c>
+      <c r="D159" s="68">
+        <f>MEDIAN(H157:H168)</f>
+        <v>0</v>
+      </c>
       <c r="F159" s="1">
-        <f>K37</f>
+        <f>C56</f>
         <v>0</v>
       </c>
       <c r="G159" s="1">
-        <f>M37</f>
+        <f>E56</f>
         <v>0</v>
       </c>
       <c r="H159" s="1">
-        <f>O37</f>
+        <f>G56</f>
         <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="62" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B160" s="68">
-        <f>B155-B154</f>
-        <v>0</v>
+        <f>QUARTILE(F157:F168,3)</f>
+        <v>1</v>
       </c>
       <c r="C160" s="68">
-        <f>C155-C154</f>
-        <v>0</v>
+        <f>QUARTILE(G157:G168,3)</f>
+        <v>0.25</v>
       </c>
       <c r="D160" s="68">
-        <f>D155-D154</f>
+        <f>QUARTILE(H157:H168,3)</f>
         <v>0</v>
       </c>
       <c r="F160" s="1">
-        <f>K56</f>
-        <v>1</v>
+        <f>C76</f>
+        <v>0</v>
       </c>
       <c r="G160" s="1">
-        <f>M56</f>
+        <f>E76</f>
         <v>0</v>
       </c>
       <c r="H160" s="1">
-        <f>O56</f>
+        <f>G76</f>
         <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="62" t="str">
-        <f>A155</f>
-        <v>Q1</v>
+      <c r="A161" s="62" t="s">
+        <v>296</v>
       </c>
       <c r="B161" s="68">
-        <f>B155</f>
-        <v>0</v>
+        <f>MAX(F157:F168)</f>
+        <v>2</v>
       </c>
       <c r="C161" s="68">
-        <f>C155</f>
-        <v>0</v>
+        <f>MAX(G157:G168)</f>
+        <v>1</v>
       </c>
       <c r="D161" s="68">
-        <f>D155</f>
-        <v>0</v>
+        <f>MAX(H157:H168)</f>
+        <v>2</v>
       </c>
       <c r="F161" s="1">
-        <f>K76</f>
+        <f>K17</f>
         <v>0</v>
       </c>
       <c r="G161" s="1">
-        <f>M76</f>
+        <f>M17</f>
         <v>0</v>
       </c>
       <c r="H161" s="1">
-        <f>O76</f>
+        <f>O17</f>
         <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="62" t="s">
-        <v>298</v>
-      </c>
-      <c r="B162" s="68">
-        <f t="shared" ref="B162:D162" si="10">B156-B155</f>
-        <v>0</v>
-      </c>
-      <c r="C162" s="68">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="D162" s="68">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
+      <c r="A162" s="62"/>
+      <c r="B162" s="68"/>
+      <c r="C162" s="68"/>
+      <c r="D162" s="68"/>
       <c r="F162" s="1">
-        <f>S17</f>
-        <v>1</v>
+        <f>K37</f>
+        <v>0</v>
       </c>
       <c r="G162" s="1">
-        <f>U17</f>
+        <f>M37</f>
         <v>0</v>
       </c>
       <c r="H162" s="1">
-        <f>W17</f>
+        <f>O37</f>
         <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="62" t="s">
+        <v>297</v>
+      </c>
+      <c r="B163" s="68">
+        <f>B158-B157</f>
+        <v>0</v>
+      </c>
+      <c r="C163" s="68">
+        <f>C158-C157</f>
+        <v>0</v>
+      </c>
+      <c r="D163" s="68">
+        <f>D158-D157</f>
+        <v>0</v>
+      </c>
+      <c r="F163" s="1">
+        <f>K56</f>
+        <v>1</v>
+      </c>
+      <c r="G163" s="1">
+        <f>M56</f>
+        <v>0</v>
+      </c>
+      <c r="H163" s="1">
+        <f>O56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="62" t="str">
+        <f>A158</f>
+        <v>Q1</v>
+      </c>
+      <c r="B164" s="68">
+        <f>B158</f>
+        <v>0</v>
+      </c>
+      <c r="C164" s="68">
+        <f>C158</f>
+        <v>0</v>
+      </c>
+      <c r="D164" s="68">
+        <f>D158</f>
+        <v>0</v>
+      </c>
+      <c r="F164" s="1">
+        <f>K76</f>
+        <v>0</v>
+      </c>
+      <c r="G164" s="1">
+        <f>M76</f>
+        <v>0</v>
+      </c>
+      <c r="H164" s="1">
+        <f>O76</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="62" t="s">
+        <v>298</v>
+      </c>
+      <c r="B165" s="68">
+        <f t="shared" ref="B165:D165" si="14">B159-B158</f>
+        <v>0</v>
+      </c>
+      <c r="C165" s="68">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D165" s="68">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F165" s="1">
+        <f>S17</f>
+        <v>1</v>
+      </c>
+      <c r="G165" s="1">
+        <f>U17</f>
+        <v>0</v>
+      </c>
+      <c r="H165" s="1">
+        <f>W17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="62" t="s">
         <v>299</v>
       </c>
-      <c r="B163" s="68">
-        <f t="shared" ref="B163:D163" si="11">B157-B156</f>
-        <v>1</v>
-      </c>
-      <c r="C163" s="68">
-        <f t="shared" si="11"/>
+      <c r="B166" s="68">
+        <f t="shared" ref="B166:D166" si="15">B160-B159</f>
+        <v>1</v>
+      </c>
+      <c r="C166" s="68">
+        <f t="shared" si="15"/>
         <v>0.25</v>
       </c>
-      <c r="D163" s="68">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="F163" s="1">
+      <c r="D166" s="68">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F166" s="1">
         <f>S37</f>
         <v>0</v>
       </c>
-      <c r="G163" s="1">
+      <c r="G166" s="1">
         <f>U37</f>
         <v>0</v>
       </c>
-      <c r="H163" s="1">
+      <c r="H166" s="1">
         <f>W37</f>
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" s="62" t="s">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="62" t="s">
         <v>300</v>
       </c>
-      <c r="B164" s="68">
-        <f t="shared" ref="B164:D164" si="12">B158-B157</f>
-        <v>1</v>
-      </c>
-      <c r="C164" s="68">
-        <f t="shared" si="12"/>
+      <c r="B167" s="68">
+        <f t="shared" ref="B167:D167" si="16">B161-B160</f>
+        <v>1</v>
+      </c>
+      <c r="C167" s="68">
+        <f t="shared" si="16"/>
         <v>0.75</v>
       </c>
-      <c r="D164" s="68">
-        <f t="shared" si="12"/>
+      <c r="D167" s="68">
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
-      <c r="F164" s="1">
+      <c r="F167" s="1">
         <f>S56</f>
         <v>2</v>
       </c>
-      <c r="G164" s="69">
+      <c r="G167" s="69">
         <f>U56</f>
         <v>1</v>
       </c>
-      <c r="H164" s="1">
+      <c r="H167" s="1">
         <f>W56</f>
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F165" s="1">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F168" s="1">
         <f>S76</f>
         <v>0</v>
       </c>
-      <c r="G165" s="1">
+      <c r="G168" s="1">
         <f>U76</f>
         <v>0</v>
       </c>
-      <c r="H165" s="1">
+      <c r="H168" s="1">
         <f>W76</f>
         <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F166" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="G166" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="H166" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" s="66" t="s">
-        <v>308</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="F167" s="1">
-        <f>TTEST(F154:F165,H154:H165,1,1)</f>
-        <v>8.30434067591478E-2</v>
-      </c>
-      <c r="G167" s="1">
-        <f>TTEST(F154:F165,G154:G165,1,1)</f>
-        <v>0.16940034809810084</v>
-      </c>
-      <c r="H167" s="1">
-        <f>TTEST(H154:H165,G154:G165,1,1)</f>
-        <v>0.5</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F169" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" s="66" t="s">
+        <v>308</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F170" s="1">
+        <f>TTEST(F157:F168,H157:H168,1,3)</f>
+        <v>0.26682108597109899</v>
+      </c>
+      <c r="G170" s="1">
+        <f>TTEST(F157:F168,G157:G168,1,3)</f>
+        <v>0.2414941672187445</v>
+      </c>
+      <c r="H170" s="1">
+        <f>TTEST(H157:H168,G157:G168,1,3)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F172" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="G169" s="1"/>
-      <c r="H169" s="1"/>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170" s="62" t="s">
-        <v>291</v>
-      </c>
-      <c r="B170" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="C170" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="D170" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="F170" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G170" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="H170" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171" s="62" t="s">
-        <v>292</v>
-      </c>
-      <c r="B171" s="68">
-        <f>MIN(F171:F182)</f>
-        <v>0</v>
-      </c>
-      <c r="C171" s="68">
-        <f>MIN(G171:G182)</f>
-        <v>0</v>
-      </c>
-      <c r="D171" s="68">
-        <f>MIN(H171:H182)</f>
-        <v>0</v>
-      </c>
-      <c r="F171" s="1">
-        <f>B18</f>
-        <v>0</v>
-      </c>
-      <c r="G171" s="1">
-        <f>D18</f>
-        <v>0</v>
-      </c>
-      <c r="H171" s="1">
-        <f>F18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" s="62" t="s">
-        <v>293</v>
-      </c>
-      <c r="B172" s="68">
-        <f>QUARTILE(F171:F182,1)</f>
-        <v>0</v>
-      </c>
-      <c r="C172" s="68">
-        <f>QUARTILE(G171:G182,1)</f>
-        <v>0</v>
-      </c>
-      <c r="D172" s="68">
-        <f>QUARTILE(H171:H182,1)</f>
-        <v>0</v>
-      </c>
-      <c r="F172" s="1">
-        <f>B38</f>
-        <v>0</v>
-      </c>
-      <c r="G172" s="1">
-        <f>D38</f>
-        <v>0</v>
-      </c>
-      <c r="H172" s="1">
-        <f>F38</f>
-        <v>1</v>
-      </c>
+      <c r="G172" s="1"/>
+      <c r="H172" s="1"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="62" t="s">
-        <v>294</v>
-      </c>
-      <c r="B173" s="68">
-        <f>MEDIAN(F171:F182)</f>
-        <v>0</v>
-      </c>
-      <c r="C173" s="68">
-        <f>MEDIAN(G171:G182)</f>
-        <v>0.5</v>
-      </c>
-      <c r="D173" s="68">
-        <f>MEDIAN(H171:H182)</f>
-        <v>0</v>
-      </c>
-      <c r="F173" s="1">
-        <f>B57</f>
-        <v>1</v>
-      </c>
-      <c r="G173" s="1">
-        <f>D57</f>
-        <v>0</v>
-      </c>
-      <c r="H173" s="1">
-        <f>F57</f>
-        <v>0</v>
+        <v>291</v>
+      </c>
+      <c r="B173" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C173" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="D173" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="B174" s="68">
+        <f>MIN(F174:F185)</f>
+        <v>0</v>
+      </c>
+      <c r="C174" s="68">
+        <f>MIN(G174:G185)</f>
+        <v>0</v>
+      </c>
+      <c r="D174" s="68">
+        <f>MIN(H174:H185)</f>
+        <v>0</v>
+      </c>
+      <c r="F174" s="1">
+        <f>B18</f>
+        <v>0</v>
+      </c>
+      <c r="G174" s="1">
+        <f>D18</f>
+        <v>0</v>
+      </c>
+      <c r="H174" s="1">
+        <f>F18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" s="62" t="s">
+        <v>293</v>
+      </c>
+      <c r="B175" s="68">
+        <f>QUARTILE(F174:F185,1)</f>
+        <v>0</v>
+      </c>
+      <c r="C175" s="68">
+        <f>QUARTILE(G174:G185,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D175" s="68">
+        <f>QUARTILE(H174:H185,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F175" s="1">
+        <f>B38</f>
+        <v>0</v>
+      </c>
+      <c r="G175" s="1">
+        <f>D38</f>
+        <v>0</v>
+      </c>
+      <c r="H175" s="1">
+        <f>F38</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" s="62" t="s">
+        <v>294</v>
+      </c>
+      <c r="B176" s="68">
+        <f>MEDIAN(F174:F185)</f>
+        <v>0</v>
+      </c>
+      <c r="C176" s="68">
+        <f>MEDIAN(G174:G185)</f>
+        <v>0.5</v>
+      </c>
+      <c r="D176" s="68">
+        <f>MEDIAN(H174:H185)</f>
+        <v>0</v>
+      </c>
+      <c r="F176" s="1">
+        <f>B57</f>
+        <v>1</v>
+      </c>
+      <c r="G176" s="1">
+        <f>D57</f>
+        <v>0</v>
+      </c>
+      <c r="H176" s="1">
+        <f>F57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" s="62" t="s">
         <v>295</v>
       </c>
-      <c r="B174" s="68">
-        <f>QUARTILE(F171:F182,3)</f>
-        <v>1</v>
-      </c>
-      <c r="C174" s="68">
-        <f>QUARTILE(G171:G182,3)</f>
-        <v>1</v>
-      </c>
-      <c r="D174" s="68">
-        <f>QUARTILE(H171:H182,3)</f>
+      <c r="B177" s="68">
+        <f>QUARTILE(F174:F185,3)</f>
+        <v>1</v>
+      </c>
+      <c r="C177" s="68">
+        <f>QUARTILE(G174:G185,3)</f>
+        <v>1</v>
+      </c>
+      <c r="D177" s="68">
+        <f>QUARTILE(H174:H185,3)</f>
         <v>0.25</v>
       </c>
-      <c r="F174" s="1">
+      <c r="F177" s="1">
         <f>B77</f>
         <v>2</v>
       </c>
-      <c r="G174" s="1">
+      <c r="G177" s="1">
         <f>D77</f>
         <v>1</v>
       </c>
-      <c r="H174" s="1">
+      <c r="H177" s="1">
         <f>F77</f>
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175" s="62" t="s">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" s="62" t="s">
         <v>296</v>
       </c>
-      <c r="B175" s="68">
-        <f>MAX(F171:F182)</f>
+      <c r="B178" s="68">
+        <f>MAX(F174:F185)</f>
         <v>2</v>
       </c>
-      <c r="C175" s="68">
-        <f>MAX(G171:G182)</f>
+      <c r="C178" s="68">
+        <f>MAX(G174:G185)</f>
         <v>3</v>
       </c>
-      <c r="D175" s="68">
-        <f>MAX(H171:H182)</f>
-        <v>1</v>
-      </c>
-      <c r="F175" s="1">
+      <c r="D178" s="68">
+        <f>MAX(H174:H185)</f>
+        <v>1</v>
+      </c>
+      <c r="F178" s="1">
         <f>J18</f>
         <v>0</v>
       </c>
-      <c r="G175" s="1">
+      <c r="G178" s="1">
         <f>L18</f>
         <v>1</v>
       </c>
-      <c r="H175" s="1">
+      <c r="H178" s="1">
         <f>N18</f>
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" s="62"/>
-      <c r="B176" s="68"/>
-      <c r="C176" s="68"/>
-      <c r="D176" s="68"/>
-      <c r="F176" s="1">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" s="62"/>
+      <c r="B179" s="68"/>
+      <c r="C179" s="68"/>
+      <c r="D179" s="68"/>
+      <c r="F179" s="1">
         <f>J38</f>
         <v>0</v>
       </c>
-      <c r="G176" s="1">
+      <c r="G179" s="1">
         <f>L38</f>
         <v>0</v>
       </c>
-      <c r="H176" s="1">
+      <c r="H179" s="1">
         <f>N38</f>
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177" s="62" t="s">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" s="62" t="s">
         <v>297</v>
       </c>
-      <c r="B177" s="68">
-        <f>B172-B171</f>
-        <v>0</v>
-      </c>
-      <c r="C177" s="68">
-        <f>C172-C171</f>
-        <v>0</v>
-      </c>
-      <c r="D177" s="68">
-        <f>D172-D171</f>
-        <v>0</v>
-      </c>
-      <c r="F177" s="1">
+      <c r="B180" s="68">
+        <f>B175-B174</f>
+        <v>0</v>
+      </c>
+      <c r="C180" s="68">
+        <f>C175-C174</f>
+        <v>0</v>
+      </c>
+      <c r="D180" s="68">
+        <f>D175-D174</f>
+        <v>0</v>
+      </c>
+      <c r="F180" s="1">
         <f>J57</f>
         <v>0</v>
       </c>
-      <c r="G177" s="1">
+      <c r="G180" s="1">
         <f>L57</f>
         <v>3</v>
       </c>
-      <c r="H177" s="1">
+      <c r="H180" s="1">
         <f>N57</f>
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178" s="62" t="str">
-        <f>A172</f>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" s="62" t="str">
+        <f>A175</f>
         <v>Q1</v>
       </c>
-      <c r="B178" s="68">
-        <f>B172</f>
-        <v>0</v>
-      </c>
-      <c r="C178" s="68">
-        <f>C172</f>
-        <v>0</v>
-      </c>
-      <c r="D178" s="68">
-        <f>D172</f>
-        <v>0</v>
-      </c>
-      <c r="F178" s="1">
+      <c r="B181" s="68">
+        <f>B175</f>
+        <v>0</v>
+      </c>
+      <c r="C181" s="68">
+        <f>C175</f>
+        <v>0</v>
+      </c>
+      <c r="D181" s="68">
+        <f>D175</f>
+        <v>0</v>
+      </c>
+      <c r="F181" s="1">
         <f>J77</f>
         <v>0</v>
       </c>
-      <c r="G178" s="1">
+      <c r="G181" s="1">
         <f>L77</f>
         <v>1</v>
       </c>
-      <c r="H178" s="1">
+      <c r="H181" s="1">
         <f>N77</f>
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179" s="62" t="s">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" s="62" t="s">
         <v>298</v>
       </c>
-      <c r="B179" s="68">
-        <f t="shared" ref="B179:D179" si="13">B173-B172</f>
-        <v>0</v>
-      </c>
-      <c r="C179" s="68">
-        <f t="shared" si="13"/>
+      <c r="B182" s="68">
+        <f t="shared" ref="B182:D182" si="17">B176-B175</f>
+        <v>0</v>
+      </c>
+      <c r="C182" s="68">
+        <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
-      <c r="D179" s="68">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="F179" s="1">
+      <c r="D182" s="68">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F182" s="1">
         <f>R18</f>
         <v>1</v>
       </c>
-      <c r="G179" s="1">
+      <c r="G182" s="1">
         <f>T18</f>
         <v>0</v>
       </c>
-      <c r="H179" s="1">
+      <c r="H182" s="1">
         <f>V18</f>
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" s="62" t="s">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" s="62" t="s">
         <v>299</v>
       </c>
-      <c r="B180" s="68">
-        <f t="shared" ref="B180:D180" si="14">B174-B173</f>
-        <v>1</v>
-      </c>
-      <c r="C180" s="68">
-        <f t="shared" si="14"/>
+      <c r="B183" s="68">
+        <f t="shared" ref="B183:D183" si="18">B177-B176</f>
+        <v>1</v>
+      </c>
+      <c r="C183" s="68">
+        <f t="shared" si="18"/>
         <v>0.5</v>
       </c>
-      <c r="D180" s="68">
-        <f t="shared" si="14"/>
+      <c r="D183" s="68">
+        <f t="shared" si="18"/>
         <v>0.25</v>
       </c>
-      <c r="F180" s="1">
+      <c r="F183" s="1">
         <f>R38</f>
         <v>1</v>
       </c>
-      <c r="G180" s="1">
+      <c r="G183" s="1">
         <f>T38</f>
         <v>1</v>
       </c>
-      <c r="H180" s="1">
+      <c r="H183" s="1">
         <f>V38</f>
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" s="62" t="s">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" s="62" t="s">
         <v>300</v>
       </c>
-      <c r="B181" s="68">
-        <f t="shared" ref="B181:D181" si="15">B175-B174</f>
-        <v>1</v>
-      </c>
-      <c r="C181" s="68">
-        <f t="shared" si="15"/>
+      <c r="B184" s="68">
+        <f t="shared" ref="B184:D184" si="19">B178-B177</f>
+        <v>1</v>
+      </c>
+      <c r="C184" s="68">
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
-      <c r="D181" s="68">
-        <f t="shared" si="15"/>
+      <c r="D184" s="68">
+        <f t="shared" si="19"/>
         <v>0.75</v>
       </c>
-      <c r="F181" s="1">
+      <c r="F184" s="1">
         <f>R57</f>
         <v>0</v>
       </c>
-      <c r="G181" s="69">
+      <c r="G184" s="69">
         <f>T57</f>
         <v>1</v>
       </c>
-      <c r="H181" s="1">
+      <c r="H184" s="1">
         <f>V57</f>
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F182" s="1">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F185" s="1">
         <f>R77</f>
         <v>0</v>
       </c>
-      <c r="G182" s="1">
+      <c r="G185" s="1">
         <f>T77</f>
         <v>0</v>
       </c>
-      <c r="H182" s="1">
+      <c r="H185" s="1">
         <f>V77</f>
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F183" s="1" t="s">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F186" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="G183" s="1" t="s">
+      <c r="G186" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="H183" s="1" t="s">
+      <c r="H186" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E184" s="1" t="s">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E187" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="F184" s="1">
-        <f>TTEST(F171:F182,H171:H182,1,1)</f>
-        <v>0.27525185780185829</v>
-      </c>
-      <c r="G184" s="1">
-        <f>TTEST(F171:F182,G171:G182,1,1)</f>
-        <v>0.23136224735502303</v>
-      </c>
-      <c r="H184" s="1">
-        <f>TTEST(H171:H182,G171:G182,1,1)</f>
-        <v>4.800683282803709E-2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" s="66" t="s">
+      <c r="F187" s="1">
+        <f>TTEST(F174:F185,H174:H185,1,3)</f>
+        <v>0.2414941672187445</v>
+      </c>
+      <c r="G187" s="1">
+        <f>TTEST(F174:F185,G174:G185,1,3)</f>
+        <v>0.2223561126811282</v>
+      </c>
+      <c r="H187" s="1">
+        <f>TTEST(H174:H185,G174:G185,1,3)</f>
+        <v>8.3139825648485099E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" s="66" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F187" s="1" t="s">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F190" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="G187" s="1"/>
-      <c r="H187" s="1"/>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188" s="62" t="s">
-        <v>320</v>
-      </c>
-      <c r="B188" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="C188" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="D188" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="F188" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G188" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="H188" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189" s="62" t="s">
-        <v>292</v>
-      </c>
-      <c r="B189" s="68">
-        <f>MIN(F189:F200)</f>
-        <v>0</v>
-      </c>
-      <c r="C189" s="68">
-        <f>MIN(G189:G200)</f>
-        <v>0</v>
-      </c>
-      <c r="D189" s="68">
-        <f>MIN(H189:H200)</f>
-        <v>0</v>
-      </c>
-      <c r="F189" s="1">
-        <f>C18</f>
-        <v>0</v>
-      </c>
-      <c r="G189" s="1">
-        <f>E18</f>
-        <v>0</v>
-      </c>
-      <c r="H189" s="1">
-        <f>G18</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190" s="62" t="s">
-        <v>293</v>
-      </c>
-      <c r="B190" s="68">
-        <f>QUARTILE(F189:F200,1)</f>
-        <v>1</v>
-      </c>
-      <c r="C190" s="68">
-        <f>QUARTILE(G189:G200,1)</f>
-        <v>0</v>
-      </c>
-      <c r="D190" s="68">
-        <f>QUARTILE(H189:H200,1)</f>
-        <v>0.75</v>
-      </c>
-      <c r="F190" s="1">
-        <f>C38</f>
-        <v>0</v>
-      </c>
-      <c r="G190" s="1">
-        <f>E38</f>
-        <v>1</v>
-      </c>
-      <c r="H190" s="1">
-        <f>G38</f>
-        <v>1</v>
-      </c>
+      <c r="G190" s="1"/>
+      <c r="H190" s="1"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="62" t="s">
+        <v>320</v>
+      </c>
+      <c r="B191" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C191" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="D191" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H191" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="B192" s="68">
+        <f>MIN(F192:F203)</f>
+        <v>0</v>
+      </c>
+      <c r="C192" s="68">
+        <f>MIN(G192:G203)</f>
+        <v>0</v>
+      </c>
+      <c r="D192" s="68">
+        <f>MIN(H192:H203)</f>
+        <v>0</v>
+      </c>
+      <c r="F192" s="1">
+        <f>C18</f>
+        <v>0</v>
+      </c>
+      <c r="G192" s="1">
+        <f>E18</f>
+        <v>0</v>
+      </c>
+      <c r="H192" s="1">
+        <f>G18</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193" s="62" t="s">
+        <v>293</v>
+      </c>
+      <c r="B193" s="68">
+        <f>QUARTILE(F192:F203,1)</f>
+        <v>1</v>
+      </c>
+      <c r="C193" s="68">
+        <f>QUARTILE(G192:G203,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D193" s="68">
+        <f>QUARTILE(H192:H203,1)</f>
+        <v>0.75</v>
+      </c>
+      <c r="F193" s="1">
+        <f>C38</f>
+        <v>0</v>
+      </c>
+      <c r="G193" s="1">
+        <f>E38</f>
+        <v>1</v>
+      </c>
+      <c r="H193" s="1">
+        <f>G38</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194" s="62" t="s">
         <v>294</v>
       </c>
-      <c r="B191" s="68">
-        <f>MEDIAN(F189:F200)</f>
-        <v>1</v>
-      </c>
-      <c r="C191" s="68">
-        <f>MEDIAN(G189:G200)</f>
-        <v>1</v>
-      </c>
-      <c r="D191" s="68">
-        <f>MEDIAN(H189:H200)</f>
-        <v>1</v>
-      </c>
-      <c r="F191" s="1">
+      <c r="B194" s="68">
+        <f>MEDIAN(F192:F203)</f>
+        <v>1</v>
+      </c>
+      <c r="C194" s="68">
+        <f>MEDIAN(G192:G203)</f>
+        <v>1</v>
+      </c>
+      <c r="D194" s="68">
+        <f>MEDIAN(H192:H203)</f>
+        <v>1</v>
+      </c>
+      <c r="F194" s="1">
         <f>C57</f>
         <v>2</v>
       </c>
-      <c r="G191" s="1">
+      <c r="G194" s="1">
         <f>E57</f>
         <v>1</v>
       </c>
-      <c r="H191" s="1">
+      <c r="H194" s="1">
         <f>G57</f>
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192" s="62" t="s">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195" s="62" t="s">
         <v>295</v>
       </c>
-      <c r="B192" s="68">
-        <f>QUARTILE(F189:F200,3)</f>
+      <c r="B195" s="68">
+        <f>QUARTILE(F192:F203,3)</f>
         <v>1.25</v>
       </c>
-      <c r="C192" s="68">
-        <f>QUARTILE(G189:G200,3)</f>
+      <c r="C195" s="68">
+        <f>QUARTILE(G192:G203,3)</f>
         <v>1.25</v>
       </c>
-      <c r="D192" s="68">
-        <f>QUARTILE(H189:H200,3)</f>
-        <v>1</v>
-      </c>
-      <c r="F192" s="1">
+      <c r="D195" s="68">
+        <f>QUARTILE(H192:H203,3)</f>
+        <v>1</v>
+      </c>
+      <c r="F195" s="1">
         <f>C77</f>
         <v>2</v>
       </c>
-      <c r="G192" s="1">
+      <c r="G195" s="1">
         <f>E77</f>
         <v>1</v>
       </c>
-      <c r="H192" s="1">
+      <c r="H195" s="1">
         <f>G77</f>
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A193" s="62" t="s">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196" s="62" t="s">
         <v>296</v>
       </c>
-      <c r="B193" s="68">
-        <f>MAX(F189:F200)</f>
+      <c r="B196" s="68">
+        <f>MAX(F192:F203)</f>
         <v>2</v>
       </c>
-      <c r="C193" s="68">
-        <f>MAX(G189:G200)</f>
+      <c r="C196" s="68">
+        <f>MAX(G192:G203)</f>
         <v>2</v>
       </c>
-      <c r="D193" s="68">
-        <f>MAX(H189:H200)</f>
+      <c r="D196" s="68">
+        <f>MAX(H192:H203)</f>
         <v>2</v>
       </c>
-      <c r="F193" s="1">
+      <c r="F196" s="1">
         <f>K18</f>
         <v>1</v>
       </c>
-      <c r="G193" s="1">
+      <c r="G196" s="1">
         <f>M18</f>
         <v>1</v>
       </c>
-      <c r="H193" s="1">
+      <c r="H196" s="1">
         <f>O18</f>
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A194" s="62"/>
-      <c r="B194" s="68"/>
-      <c r="C194" s="68"/>
-      <c r="D194" s="68"/>
-      <c r="F194" s="1">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197" s="62"/>
+      <c r="B197" s="68"/>
+      <c r="C197" s="68"/>
+      <c r="D197" s="68"/>
+      <c r="F197" s="1">
         <f>K38</f>
         <v>1</v>
       </c>
-      <c r="G194" s="1">
+      <c r="G197" s="1">
         <f>M38</f>
         <v>2</v>
       </c>
-      <c r="H194" s="1">
+      <c r="H197" s="1">
         <f>O38</f>
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A195" s="62" t="s">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198" s="62" t="s">
         <v>297</v>
       </c>
-      <c r="B195" s="68">
-        <f>B190-B189</f>
-        <v>1</v>
-      </c>
-      <c r="C195" s="68">
-        <f>C190-C189</f>
-        <v>0</v>
-      </c>
-      <c r="D195" s="68">
-        <f>D190-D189</f>
+      <c r="B198" s="68">
+        <f>B193-B192</f>
+        <v>1</v>
+      </c>
+      <c r="C198" s="68">
+        <f>C193-C192</f>
+        <v>0</v>
+      </c>
+      <c r="D198" s="68">
+        <f>D193-D192</f>
         <v>0.75</v>
       </c>
-      <c r="F195" s="1">
+      <c r="F198" s="1">
         <f>K57</f>
         <v>1</v>
       </c>
-      <c r="G195" s="1">
+      <c r="G198" s="1">
         <f>M57</f>
         <v>1</v>
       </c>
-      <c r="H195" s="1">
+      <c r="H198" s="1">
         <f>O57</f>
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A196" s="62" t="str">
-        <f>A190</f>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199" s="62" t="str">
+        <f>A193</f>
         <v>Q1</v>
       </c>
-      <c r="B196" s="68">
-        <f>B190</f>
-        <v>1</v>
-      </c>
-      <c r="C196" s="68">
-        <f>C190</f>
-        <v>0</v>
-      </c>
-      <c r="D196" s="68">
-        <f>D190</f>
+      <c r="B199" s="68">
+        <f>B193</f>
+        <v>1</v>
+      </c>
+      <c r="C199" s="68">
+        <f>C193</f>
+        <v>0</v>
+      </c>
+      <c r="D199" s="68">
+        <f>D193</f>
         <v>0.75</v>
       </c>
-      <c r="F196" s="1">
+      <c r="F199" s="1">
         <f>K77</f>
         <v>1</v>
       </c>
-      <c r="G196" s="1">
+      <c r="G199" s="1">
         <f>M77</f>
         <v>0</v>
       </c>
-      <c r="H196" s="1">
+      <c r="H199" s="1">
         <f>O77</f>
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A197" s="62" t="s">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" s="62" t="s">
         <v>298</v>
       </c>
-      <c r="B197" s="68">
-        <f t="shared" ref="B197:D197" si="16">B191-B190</f>
-        <v>0</v>
-      </c>
-      <c r="C197" s="68">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="D197" s="68">
-        <f t="shared" si="16"/>
+      <c r="B200" s="68">
+        <f t="shared" ref="B200:D200" si="20">B194-B193</f>
+        <v>0</v>
+      </c>
+      <c r="C200" s="68">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="D200" s="68">
+        <f t="shared" si="20"/>
         <v>0.25</v>
       </c>
-      <c r="F197" s="1">
+      <c r="F200" s="1">
         <f>S18</f>
         <v>1</v>
       </c>
-      <c r="G197" s="1">
+      <c r="G200" s="1">
         <f>U18</f>
         <v>2</v>
       </c>
-      <c r="H197" s="1">
+      <c r="H200" s="1">
         <f>W18</f>
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A198" s="62" t="s">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" s="62" t="s">
         <v>299</v>
       </c>
-      <c r="B198" s="68">
-        <f t="shared" ref="B198:D198" si="17">B192-B191</f>
+      <c r="B201" s="68">
+        <f t="shared" ref="B201:D201" si="21">B195-B194</f>
         <v>0.25</v>
       </c>
-      <c r="C198" s="68">
-        <f t="shared" si="17"/>
+      <c r="C201" s="68">
+        <f t="shared" si="21"/>
         <v>0.25</v>
       </c>
-      <c r="D198" s="68">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="F198" s="1">
+      <c r="D201" s="68">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F201" s="1">
         <f>S38</f>
         <v>2</v>
       </c>
-      <c r="G198" s="1">
+      <c r="G201" s="1">
         <f>U38</f>
         <v>2</v>
       </c>
-      <c r="H198" s="1">
+      <c r="H201" s="1">
         <f>W38</f>
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A199" s="62" t="s">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" s="62" t="s">
         <v>300</v>
       </c>
-      <c r="B199" s="68">
-        <f t="shared" ref="B199:D199" si="18">B193-B192</f>
+      <c r="B202" s="68">
+        <f t="shared" ref="B202:D202" si="22">B196-B195</f>
         <v>0.75</v>
       </c>
-      <c r="C199" s="68">
-        <f t="shared" si="18"/>
+      <c r="C202" s="68">
+        <f t="shared" si="22"/>
         <v>0.75</v>
       </c>
-      <c r="D199" s="68">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="F199" s="1">
+      <c r="D202" s="68">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="F202" s="1">
         <f>S57</f>
         <v>1</v>
       </c>
-      <c r="G199" s="69">
+      <c r="G202" s="69">
         <f>U57</f>
         <v>0</v>
       </c>
-      <c r="H199" s="1">
+      <c r="H202" s="1">
         <f>W57</f>
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F200" s="1">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F203" s="1">
         <f>S77</f>
         <v>1</v>
       </c>
-      <c r="G200" s="1">
+      <c r="G203" s="1">
         <f>U77</f>
         <v>0</v>
       </c>
-      <c r="H200" s="1">
+      <c r="H203" s="1">
         <f>W77</f>
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F201" s="1" t="s">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F204" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="G201" s="1" t="s">
+      <c r="G204" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="H201" s="1" t="s">
+      <c r="H204" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E202" s="1" t="s">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E205" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="F202" s="1">
-        <f>TTEST(F189:F200,H189:H200,1,1)</f>
-        <v>0.21910294966882926</v>
-      </c>
-      <c r="G202" s="1">
-        <f>TTEST(F189:F200,G189:G200,1,1)</f>
-        <v>0.25177295291459145</v>
-      </c>
-      <c r="H202" s="1">
-        <f>TTEST(H189:H200,G189:G200,1,1)</f>
+      <c r="F205" s="1">
+        <f>TTEST(F192:F203,H192:H203,1,3)</f>
+        <v>0.27384758795541753</v>
+      </c>
+      <c r="G205" s="1">
+        <f>TTEST(F192:F203,G192:G203,1,3)</f>
+        <v>0.29177227182943999</v>
+      </c>
+      <c r="H205" s="1">
+        <f>TTEST(H192:H203,G192:G203,1,3)</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F207" s="1" t="s">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F210" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="G207" s="1"/>
-      <c r="H207" s="1"/>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A208" s="62" t="s">
-        <v>291</v>
-      </c>
-      <c r="B208" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="C208" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="D208" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="F208" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G208" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="H208" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A209" s="62" t="s">
-        <v>292</v>
-      </c>
-      <c r="B209" s="68">
-        <f>MIN(F209:F220)</f>
-        <v>0</v>
-      </c>
-      <c r="C209" s="68">
-        <f>MIN(G209:G220)</f>
-        <v>0</v>
-      </c>
-      <c r="D209" s="68">
-        <f>MIN(H209:H220)</f>
-        <v>0</v>
-      </c>
-      <c r="F209" s="1">
-        <f>SUM(F171,F136)</f>
-        <v>0</v>
-      </c>
-      <c r="G209" s="1">
-        <f>SUM(G171,G136)</f>
-        <v>0</v>
-      </c>
-      <c r="H209" s="1">
-        <f>SUM(H171,H136)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A210" s="62" t="s">
-        <v>293</v>
-      </c>
-      <c r="B210" s="68">
-        <f>QUARTILE(F209:F220,1)</f>
-        <v>0</v>
-      </c>
-      <c r="C210" s="68">
-        <f>QUARTILE(G209:G220,1)</f>
-        <v>0</v>
-      </c>
-      <c r="D210" s="68">
-        <f>QUARTILE(H209:H220,1)</f>
-        <v>0</v>
-      </c>
-      <c r="F210" s="1">
-        <f>SUM(F172,F137)</f>
-        <v>0</v>
-      </c>
-      <c r="G210" s="1">
-        <f>SUM(G172,G137)</f>
-        <v>1</v>
-      </c>
-      <c r="H210" s="1">
-        <f>SUM(H172,H137)</f>
-        <v>1</v>
-      </c>
+      <c r="G210" s="1"/>
+      <c r="H210" s="1"/>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="62" t="s">
-        <v>294</v>
-      </c>
-      <c r="B211" s="68">
-        <f>MEDIAN(F209:F220)</f>
-        <v>0</v>
-      </c>
-      <c r="C211" s="68">
-        <f>MEDIAN(G209:G220)</f>
-        <v>1</v>
-      </c>
-      <c r="D211" s="68">
-        <f>MEDIAN(H209:H220)</f>
-        <v>0</v>
-      </c>
-      <c r="F211" s="1">
-        <f>SUM(F173,F138)</f>
-        <v>2</v>
-      </c>
-      <c r="G211" s="1">
-        <f>SUM(G173,G138)</f>
-        <v>1</v>
-      </c>
-      <c r="H211" s="1">
-        <f>SUM(H173,H138)</f>
-        <v>0</v>
+        <v>291</v>
+      </c>
+      <c r="B211" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C211" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="D211" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H211" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="62" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B212" s="68">
-        <f>QUARTILE(F209:F220,3)</f>
-        <v>1.25</v>
+        <f>MIN(F212:F223)</f>
+        <v>0</v>
       </c>
       <c r="C212" s="68">
-        <f>QUARTILE(G209:G220,3)</f>
-        <v>1</v>
+        <f>MIN(G212:G223)</f>
+        <v>0</v>
       </c>
       <c r="D212" s="68">
-        <f>QUARTILE(H209:H220,3)</f>
-        <v>1</v>
+        <f>MIN(H212:H223)</f>
+        <v>0</v>
       </c>
       <c r="F212" s="1">
-        <f>SUM(F174,F139)</f>
-        <v>2</v>
+        <f t="shared" ref="F212:H223" si="23">SUM(F174,F139)</f>
+        <v>0</v>
       </c>
       <c r="G212" s="1">
-        <f>SUM(G174,G139)</f>
-        <v>1</v>
+        <f t="shared" si="23"/>
+        <v>0</v>
       </c>
       <c r="H212" s="1">
-        <f>SUM(H174,H139)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="62" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B213" s="68">
-        <f>MAX(F209:F220)</f>
+        <f>QUARTILE(F212:F223,1)</f>
+        <v>0</v>
+      </c>
+      <c r="C213" s="68">
+        <f>QUARTILE(G212:G223,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D213" s="68">
+        <f>QUARTILE(H212:H223,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F213" s="1">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G213" s="1">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="H213" s="1">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A214" s="62" t="s">
+        <v>294</v>
+      </c>
+      <c r="B214" s="68">
+        <f>MEDIAN(F212:F223)</f>
+        <v>0</v>
+      </c>
+      <c r="C214" s="68">
+        <f>MEDIAN(G212:G223)</f>
+        <v>1</v>
+      </c>
+      <c r="D214" s="68">
+        <f>MEDIAN(H212:H223)</f>
+        <v>0</v>
+      </c>
+      <c r="F214" s="1">
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
-      <c r="C213" s="68">
-        <f>MAX(G209:G220)</f>
-        <v>3</v>
-      </c>
-      <c r="D213" s="68">
-        <f>MAX(H209:H220)</f>
-        <v>2</v>
-      </c>
-      <c r="F213" s="1">
-        <f>SUM(F175,F140)</f>
-        <v>0</v>
-      </c>
-      <c r="G213" s="1">
-        <f>SUM(G175,G140)</f>
-        <v>1</v>
-      </c>
-      <c r="H213" s="1">
-        <f>SUM(H175,H140)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A214" s="62"/>
-      <c r="B214" s="68"/>
-      <c r="C214" s="68"/>
-      <c r="D214" s="68"/>
-      <c r="F214" s="1">
-        <f>SUM(F176,F141)</f>
-        <v>0</v>
-      </c>
       <c r="G214" s="1">
-        <f>SUM(G176,G141)</f>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
       <c r="H214" s="1">
-        <f>SUM(H176,H141)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="62" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B215" s="68">
-        <f>B210-B209</f>
-        <v>0</v>
+        <f>QUARTILE(F212:F223,3)</f>
+        <v>1.25</v>
       </c>
       <c r="C215" s="68">
-        <f>C210-C209</f>
-        <v>0</v>
+        <f>QUARTILE(G212:G223,3)</f>
+        <v>1</v>
       </c>
       <c r="D215" s="68">
-        <f>D210-D209</f>
-        <v>0</v>
+        <f>QUARTILE(H212:H223,3)</f>
+        <v>1</v>
       </c>
       <c r="F215" s="1">
-        <f>SUM(F177,F142)</f>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>2</v>
       </c>
       <c r="G215" s="1">
-        <f>SUM(G177,G142)</f>
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="H215" s="1">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216" s="62" t="s">
+        <v>296</v>
+      </c>
+      <c r="B216" s="68">
+        <f>MAX(F212:F223)</f>
+        <v>2</v>
+      </c>
+      <c r="C216" s="68">
+        <f>MAX(G212:G223)</f>
         <v>3</v>
       </c>
-      <c r="H215" s="1">
-        <f>SUM(H177,H142)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A216" s="62" t="str">
-        <f>A210</f>
-        <v>Q1</v>
-      </c>
-      <c r="B216" s="68">
-        <f>B210</f>
-        <v>0</v>
-      </c>
-      <c r="C216" s="68">
-        <f>C210</f>
-        <v>0</v>
-      </c>
       <c r="D216" s="68">
-        <f>D210</f>
-        <v>0</v>
+        <f>MAX(H212:H223)</f>
+        <v>2</v>
       </c>
       <c r="F216" s="1">
-        <f>SUM(F178,F143)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G216" s="1">
-        <f>SUM(G178,G143)</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="H216" s="1">
-        <f>SUM(H178,H143)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A217" s="62" t="s">
-        <v>298</v>
-      </c>
-      <c r="B217" s="68">
-        <f t="shared" ref="B217:D217" si="19">B211-B210</f>
-        <v>0</v>
-      </c>
-      <c r="C217" s="68">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="D217" s="68">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
+      <c r="A217" s="62"/>
+      <c r="B217" s="68"/>
+      <c r="C217" s="68"/>
+      <c r="D217" s="68"/>
       <c r="F217" s="1">
-        <f>SUM(F179,F144)</f>
-        <v>1</v>
+        <f t="shared" si="23"/>
+        <v>0</v>
       </c>
       <c r="G217" s="1">
-        <f>SUM(G179,G144)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H217" s="1">
-        <f>SUM(H179,H144)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="62" t="s">
+        <v>297</v>
+      </c>
+      <c r="B218" s="68">
+        <f>B213-B212</f>
+        <v>0</v>
+      </c>
+      <c r="C218" s="68">
+        <f>C213-C212</f>
+        <v>0</v>
+      </c>
+      <c r="D218" s="68">
+        <f>D213-D212</f>
+        <v>0</v>
+      </c>
+      <c r="F218" s="1">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G218" s="1">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="H218" s="1">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219" s="62" t="str">
+        <f>A213</f>
+        <v>Q1</v>
+      </c>
+      <c r="B219" s="68">
+        <f>B213</f>
+        <v>0</v>
+      </c>
+      <c r="C219" s="68">
+        <f>C213</f>
+        <v>0</v>
+      </c>
+      <c r="D219" s="68">
+        <f>D213</f>
+        <v>0</v>
+      </c>
+      <c r="F219" s="1">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G219" s="1">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="H219" s="1">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A220" s="62" t="s">
+        <v>298</v>
+      </c>
+      <c r="B220" s="68">
+        <f t="shared" ref="B220:D220" si="24">B214-B213</f>
+        <v>0</v>
+      </c>
+      <c r="C220" s="68">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="D220" s="68">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="F220" s="1">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="G220" s="1">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="H220" s="1">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A221" s="62" t="s">
         <v>299</v>
       </c>
-      <c r="B218" s="68">
-        <f t="shared" ref="B218:D218" si="20">B212-B211</f>
+      <c r="B221" s="68">
+        <f t="shared" ref="B221:D221" si="25">B215-B214</f>
         <v>1.25</v>
       </c>
-      <c r="C218" s="68">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="D218" s="68">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="F218" s="1">
-        <f>SUM(F180,F145)</f>
-        <v>1</v>
-      </c>
-      <c r="G218" s="1">
-        <f>SUM(G180,G145)</f>
-        <v>1</v>
-      </c>
-      <c r="H218" s="1">
-        <f>SUM(H180,H145)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A219" s="62" t="s">
+      <c r="C221" s="68">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="D221" s="68">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F221" s="1">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="G221" s="1">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="H221" s="1">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A222" s="62" t="s">
         <v>300</v>
       </c>
-      <c r="B219" s="68">
-        <f t="shared" ref="B219:D219" si="21">B213-B212</f>
+      <c r="B222" s="68">
+        <f t="shared" ref="B222:D222" si="26">B216-B215</f>
         <v>0.75</v>
       </c>
-      <c r="C219" s="68">
-        <f t="shared" si="21"/>
+      <c r="C222" s="68">
+        <f t="shared" si="26"/>
         <v>2</v>
       </c>
-      <c r="D219" s="68">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="F219" s="1">
-        <f>SUM(F181,F146)</f>
+      <c r="D222" s="68">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="F222" s="1">
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
-      <c r="G219" s="1">
-        <f>SUM(G181,G146)</f>
-        <v>1</v>
-      </c>
-      <c r="H219" s="1">
-        <f>SUM(H181,H146)</f>
+      <c r="G222" s="1">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="H222" s="1">
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F220" s="1">
-        <f>SUM(F182,F147)</f>
-        <v>0</v>
-      </c>
-      <c r="G220" s="1">
-        <f>SUM(G182,G147)</f>
-        <v>0</v>
-      </c>
-      <c r="H220" s="1">
-        <f>SUM(H182,H147)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F221" s="1" t="s">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F223" s="1">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G223" s="1">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="H223" s="1">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F224" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="G221" s="1" t="s">
+      <c r="G224" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="H221" s="1" t="s">
+      <c r="H224" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E222" s="1" t="s">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E225" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="F222" s="1">
-        <f>TTEST(F209:F220,H209:H220,1,1)</f>
-        <v>0.19442616407085705</v>
-      </c>
-      <c r="G222" s="1">
-        <f>TTEST(F209:F220,G209:G220,1,1)</f>
-        <v>0.31901473621855275</v>
-      </c>
-      <c r="H222" s="1">
-        <f>TTEST(H209:H220,G209:G220,1,1)</f>
-        <v>4.800683282803709E-2</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
+      <c r="F225" s="1">
+        <f>TTEST(F212:F223,H212:H223,1,3)</f>
+        <v>0.22235611268112815</v>
+      </c>
+      <c r="G225" s="1">
+        <f>TTEST(F212:F223,G212:G223,1,3)</f>
+        <v>0.32016281650131906</v>
+      </c>
+      <c r="H225" s="1">
+        <f>TTEST(H212:H223,G212:G223,1,3)</f>
+        <v>9.5771728356413635E-2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F226" s="1" t="s">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F229" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="G226" s="1"/>
-      <c r="H226" s="1"/>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A227" s="62" t="s">
-        <v>320</v>
-      </c>
-      <c r="B227" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="C227" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="D227" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="F227" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G227" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="H227" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A228" s="62" t="s">
-        <v>292</v>
-      </c>
-      <c r="B228" s="68">
-        <f>MIN(F228:F239)</f>
-        <v>0</v>
-      </c>
-      <c r="C228" s="68">
-        <f>MIN(G228:G239)</f>
-        <v>0</v>
-      </c>
-      <c r="D228" s="68">
-        <f>MIN(H228:H239)</f>
-        <v>0</v>
-      </c>
-      <c r="F228">
-        <f>SUM(F189,F154)</f>
-        <v>0</v>
-      </c>
-      <c r="G228" s="1">
-        <f>SUM(G189,G154)</f>
-        <v>1</v>
-      </c>
-      <c r="H228" s="1">
-        <f>SUM(H189,H154)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A229" s="62" t="s">
-        <v>293</v>
-      </c>
-      <c r="B229" s="68">
-        <f>QUARTILE(F228:F239,1)</f>
-        <v>1</v>
-      </c>
-      <c r="C229" s="68">
-        <f>QUARTILE(G228:G239,1)</f>
-        <v>1</v>
-      </c>
-      <c r="D229" s="68">
-        <f>QUARTILE(H228:H239,1)</f>
-        <v>1</v>
-      </c>
-      <c r="F229" s="1">
-        <f>SUM(F190,F155)</f>
-        <v>1</v>
-      </c>
-      <c r="G229" s="1">
-        <f>SUM(G190,G155)</f>
-        <v>2</v>
-      </c>
-      <c r="H229" s="1">
-        <f>SUM(H190,H155)</f>
-        <v>2</v>
-      </c>
+      <c r="G229" s="1"/>
+      <c r="H229" s="1"/>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="62" t="s">
-        <v>294</v>
-      </c>
-      <c r="B230" s="68">
-        <f>MEDIAN(F228:F239)</f>
-        <v>1.5</v>
-      </c>
-      <c r="C230" s="68">
-        <f>MEDIAN(G228:G239)</f>
-        <v>1</v>
-      </c>
-      <c r="D230" s="68">
-        <f>MEDIAN(H228:H239)</f>
-        <v>1</v>
-      </c>
-      <c r="F230" s="1">
-        <f>SUM(F191,F156)</f>
-        <v>2</v>
-      </c>
-      <c r="G230" s="1">
-        <f>SUM(G191,G156)</f>
-        <v>1</v>
-      </c>
-      <c r="H230" s="1">
-        <f>SUM(H191,H156)</f>
-        <v>1</v>
+        <v>320</v>
+      </c>
+      <c r="B230" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C230" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="D230" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G230" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H230" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="62" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B231" s="68">
-        <f>QUARTILE(F228:F239,3)</f>
-        <v>2</v>
+        <f>MIN(F231:F242)</f>
+        <v>0</v>
       </c>
       <c r="C231" s="68">
-        <f>QUARTILE(G228:G239,3)</f>
-        <v>2</v>
+        <f>MIN(G231:G242)</f>
+        <v>0</v>
       </c>
       <c r="D231" s="68">
-        <f>QUARTILE(H228:H239,3)</f>
-        <v>2</v>
-      </c>
-      <c r="F231" s="1">
-        <f>SUM(F192,F157)</f>
-        <v>2</v>
+        <f>MIN(H231:H242)</f>
+        <v>0</v>
+      </c>
+      <c r="F231">
+        <f t="shared" ref="F231:H242" si="27">SUM(F192,F157)</f>
+        <v>0</v>
       </c>
       <c r="G231" s="1">
-        <f>SUM(G192,G157)</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="H231" s="1">
-        <f>SUM(H192,H157)</f>
-        <v>2</v>
+        <f t="shared" si="27"/>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="62" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B232" s="68">
-        <f>MAX(F228:F239)</f>
-        <v>3</v>
+        <f>QUARTILE(F231:F242,1)</f>
+        <v>1</v>
       </c>
       <c r="C232" s="68">
-        <f>MAX(G228:G239)</f>
+        <f>QUARTILE(G231:G242,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D232" s="68">
+        <f>QUARTILE(H231:H242,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F232" s="1">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="G232" s="1">
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
-      <c r="D232" s="68">
-        <f>MAX(H228:H239)</f>
+      <c r="H232" s="1">
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
-      <c r="F232" s="1">
-        <f>SUM(F193,F158)</f>
-        <v>1</v>
-      </c>
-      <c r="G232" s="1">
-        <f>SUM(G193,G158)</f>
-        <v>1</v>
-      </c>
-      <c r="H232" s="1">
-        <f>SUM(H193,H158)</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A233" s="62"/>
-      <c r="B233" s="68"/>
-      <c r="C233" s="68"/>
-      <c r="D233" s="68"/>
+      <c r="A233" s="62" t="s">
+        <v>294</v>
+      </c>
+      <c r="B233" s="68">
+        <f>MEDIAN(F231:F242)</f>
+        <v>1.5</v>
+      </c>
+      <c r="C233" s="68">
+        <f>MEDIAN(G231:G242)</f>
+        <v>1</v>
+      </c>
+      <c r="D233" s="68">
+        <f>MEDIAN(H231:H242)</f>
+        <v>1</v>
+      </c>
       <c r="F233" s="1">
-        <f>SUM(F194,F159)</f>
-        <v>1</v>
+        <f t="shared" si="27"/>
+        <v>2</v>
       </c>
       <c r="G233" s="1">
-        <f>SUM(G194,G159)</f>
-        <v>2</v>
+        <f t="shared" si="27"/>
+        <v>1</v>
       </c>
       <c r="H233" s="1">
-        <f>SUM(H194,H159)</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="62" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B234" s="68">
-        <f>B229-B228</f>
-        <v>1</v>
+        <f>QUARTILE(F231:F242,3)</f>
+        <v>2</v>
       </c>
       <c r="C234" s="68">
-        <f>C229-C228</f>
-        <v>1</v>
+        <f>QUARTILE(G231:G242,3)</f>
+        <v>2</v>
       </c>
       <c r="D234" s="68">
-        <f>D229-D228</f>
-        <v>1</v>
+        <f>QUARTILE(H231:H242,3)</f>
+        <v>2</v>
       </c>
       <c r="F234" s="1">
-        <f>SUM(F195,F160)</f>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="G234" s="1">
-        <f>SUM(G195,G160)</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="H234" s="1">
-        <f>SUM(H195,H160)</f>
-        <v>1</v>
+        <f t="shared" si="27"/>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A235" s="62" t="str">
-        <f>A229</f>
-        <v>Q1</v>
+      <c r="A235" s="62" t="s">
+        <v>296</v>
       </c>
       <c r="B235" s="68">
-        <f>B229</f>
-        <v>1</v>
+        <f>MAX(F231:F242)</f>
+        <v>3</v>
       </c>
       <c r="C235" s="68">
-        <f>C229</f>
-        <v>1</v>
+        <f>MAX(G231:G242)</f>
+        <v>2</v>
       </c>
       <c r="D235" s="68">
-        <f>D229</f>
-        <v>1</v>
+        <f>MAX(H231:H242)</f>
+        <v>2</v>
       </c>
       <c r="F235" s="1">
-        <f>SUM(F196,F161)</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="G235" s="1">
-        <f>SUM(G196,G161)</f>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>1</v>
       </c>
       <c r="H235" s="1">
-        <f>SUM(H196,H161)</f>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A236" s="62" t="s">
-        <v>298</v>
-      </c>
-      <c r="B236" s="68">
-        <f t="shared" ref="B236:D236" si="22">B230-B229</f>
-        <v>0.5</v>
-      </c>
-      <c r="C236" s="68">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="D236" s="68">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
+      <c r="A236" s="62"/>
+      <c r="B236" s="68"/>
+      <c r="C236" s="68"/>
+      <c r="D236" s="68"/>
       <c r="F236" s="1">
-        <f>SUM(F197,F162)</f>
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="G236" s="1">
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
-      <c r="G236" s="1">
-        <f>SUM(G197,G162)</f>
-        <v>2</v>
-      </c>
       <c r="H236" s="1">
-        <f>SUM(H197,H162)</f>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="62" t="s">
+        <v>297</v>
+      </c>
+      <c r="B237" s="68">
+        <f>B232-B231</f>
+        <v>1</v>
+      </c>
+      <c r="C237" s="68">
+        <f>C232-C231</f>
+        <v>1</v>
+      </c>
+      <c r="D237" s="68">
+        <f>D232-D231</f>
+        <v>1</v>
+      </c>
+      <c r="F237" s="1">
+        <f t="shared" si="27"/>
+        <v>2</v>
+      </c>
+      <c r="G237" s="1">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="H237" s="1">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A238" s="62" t="str">
+        <f>A232</f>
+        <v>Q1</v>
+      </c>
+      <c r="B238" s="68">
+        <f>B232</f>
+        <v>1</v>
+      </c>
+      <c r="C238" s="68">
+        <f>C232</f>
+        <v>1</v>
+      </c>
+      <c r="D238" s="68">
+        <f>D232</f>
+        <v>1</v>
+      </c>
+      <c r="F238" s="1">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="G238" s="1">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="H238" s="1">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A239" s="62" t="s">
+        <v>298</v>
+      </c>
+      <c r="B239" s="68">
+        <f t="shared" ref="B239:D239" si="28">B233-B232</f>
+        <v>0.5</v>
+      </c>
+      <c r="C239" s="68">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="D239" s="68">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="F239" s="1">
+        <f t="shared" si="27"/>
+        <v>2</v>
+      </c>
+      <c r="G239" s="1">
+        <f t="shared" si="27"/>
+        <v>2</v>
+      </c>
+      <c r="H239" s="1">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A240" s="62" t="s">
         <v>299</v>
       </c>
-      <c r="B237" s="68">
-        <f t="shared" ref="B237:D237" si="23">B231-B230</f>
+      <c r="B240" s="68">
+        <f t="shared" ref="B240:D240" si="29">B234-B233</f>
         <v>0.5</v>
       </c>
-      <c r="C237" s="68">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="D237" s="68">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="F237" s="1">
-        <f>SUM(F198,F163)</f>
+      <c r="C240" s="68">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="D240" s="68">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="F240" s="1">
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
-      <c r="G237" s="1">
-        <f>SUM(G198,G163)</f>
+      <c r="G240" s="1">
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
-      <c r="H237" s="1">
-        <f>SUM(H198,H163)</f>
+      <c r="H240" s="1">
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A238" s="62" t="s">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A241" s="62" t="s">
         <v>300</v>
       </c>
-      <c r="B238" s="68">
-        <f t="shared" ref="B238:D238" si="24">B232-B231</f>
-        <v>1</v>
-      </c>
-      <c r="C238" s="68">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="D238" s="68">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="F238" s="1">
-        <f>SUM(F199,F164)</f>
+      <c r="B241" s="68">
+        <f t="shared" ref="B241:D241" si="30">B235-B234</f>
+        <v>1</v>
+      </c>
+      <c r="C241" s="68">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="D241" s="68">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F241" s="1">
+        <f t="shared" si="27"/>
         <v>3</v>
       </c>
-      <c r="G238" s="1">
-        <f>SUM(G199,G164)</f>
-        <v>1</v>
-      </c>
-      <c r="H238" s="1">
-        <f>SUM(H199,H164)</f>
+      <c r="G241" s="1">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="H241" s="1">
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F239" s="1">
-        <f>SUM(F200,F165)</f>
-        <v>1</v>
-      </c>
-      <c r="G239" s="1">
-        <f>SUM(G200,G165)</f>
-        <v>0</v>
-      </c>
-      <c r="H239" s="1">
-        <f>SUM(H200,H165)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F240" s="1" t="s">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F242" s="1">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="G242" s="1">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="H242" s="1">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F243" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="G240" s="1" t="s">
+      <c r="G243" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="H240" s="1" t="s">
+      <c r="H243" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E241" s="1" t="s">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E244" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="F241" s="1">
-        <f>TTEST(F228:F239,H228:H239,1,1)</f>
-        <v>0.10994392156377948</v>
-      </c>
-      <c r="G241" s="1">
-        <f>TTEST(F228:F239,G228:G239,1,1)</f>
-        <v>0.13286160574888634</v>
-      </c>
-      <c r="H241" s="1">
-        <f>TTEST(H228:H239,G228:G239,1,1)</f>
+      <c r="F244" s="1">
+        <f>TTEST(F231:F242,H231:H242,1,3)</f>
+        <v>0.14684481455711884</v>
+      </c>
+      <c r="G244" s="1">
+        <f>TTEST(F231:F242,G231:G242,1,3)</f>
+        <v>0.14684481455711884</v>
+      </c>
+      <c r="H244" s="1">
+        <f>TTEST(H231:H242,G231:G242,1,3)</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F244" s="1" t="s">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F247" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="G244" s="1"/>
-      <c r="H244" s="1"/>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A245" s="62" t="s">
-        <v>291</v>
-      </c>
-      <c r="B245" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="C245" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="D245" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="F245" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G245" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="H245" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A246" s="62" t="s">
-        <v>292</v>
-      </c>
-      <c r="B246" s="68">
-        <f>MIN(F246:F257)</f>
-        <v>0</v>
-      </c>
-      <c r="C246" s="68">
-        <f>MIN(G246:G257)</f>
-        <v>0</v>
-      </c>
-      <c r="D246" s="68">
-        <f>MIN(H246:H257)</f>
-        <v>0</v>
-      </c>
-      <c r="F246" s="1">
-        <f>SUM(F99,F171)</f>
-        <v>1</v>
-      </c>
-      <c r="G246" s="1">
-        <f>SUM(G99,G171)</f>
-        <v>2</v>
-      </c>
-      <c r="H246" s="1">
-        <f>SUM(H99,H171)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A247" s="62" t="s">
-        <v>293</v>
-      </c>
-      <c r="B247" s="68">
-        <f>QUARTILE(F246:F257,1)</f>
-        <v>1</v>
-      </c>
-      <c r="C247" s="68">
-        <f>QUARTILE(G246:G257,1)</f>
-        <v>2</v>
-      </c>
-      <c r="D247" s="68">
-        <f>QUARTILE(H246:H257,1)</f>
-        <v>1</v>
-      </c>
-      <c r="F247" s="1">
-        <f>SUM(F100,F172)</f>
-        <v>1</v>
-      </c>
-      <c r="G247" s="1">
-        <f>SUM(G100,G172)</f>
-        <v>0</v>
-      </c>
-      <c r="H247" s="1">
-        <f>SUM(H100,H172)</f>
-        <v>1</v>
-      </c>
+      <c r="G247" s="1"/>
+      <c r="H247" s="1"/>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="62" t="s">
-        <v>294</v>
-      </c>
-      <c r="B248" s="68">
-        <f>MEDIAN(F246:F257)</f>
-        <v>2</v>
-      </c>
-      <c r="C248" s="68">
-        <f>MEDIAN(G246:G257)</f>
-        <v>3</v>
-      </c>
-      <c r="D248" s="68">
-        <f>MEDIAN(H246:H257)</f>
-        <v>2.5</v>
-      </c>
-      <c r="F248" s="1">
-        <f>SUM(F101,F173)</f>
-        <v>2</v>
-      </c>
-      <c r="G248" s="1">
-        <f>SUM(G101,G173)</f>
-        <v>4</v>
-      </c>
-      <c r="H248" s="1">
-        <f>SUM(H101,H173)</f>
-        <v>4</v>
+        <v>291</v>
+      </c>
+      <c r="B248" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C248" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="D248" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G248" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H248" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="62" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B249" s="68">
-        <f>QUARTILE(F246:F257,3)</f>
-        <v>2.25</v>
+        <f>MIN(F249:F260)</f>
+        <v>0</v>
       </c>
       <c r="C249" s="68">
-        <f>QUARTILE(G246:G257,3)</f>
-        <v>4</v>
+        <f>MIN(G249:G260)</f>
+        <v>0</v>
       </c>
       <c r="D249" s="68">
-        <f>QUARTILE(H246:H257,3)</f>
-        <v>3.25</v>
+        <f>MIN(H249:H260)</f>
+        <v>0</v>
       </c>
       <c r="F249" s="1">
-        <f>SUM(F102,F174)</f>
-        <v>5</v>
+        <f t="shared" ref="F249:H260" si="31">SUM(F102,F174)</f>
+        <v>1</v>
       </c>
       <c r="G249" s="1">
-        <f>SUM(G102,G174)</f>
-        <v>5</v>
+        <f t="shared" si="31"/>
+        <v>2</v>
       </c>
       <c r="H249" s="1">
-        <f>SUM(H102,H174)</f>
-        <v>3</v>
+        <f t="shared" si="31"/>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="62" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B250" s="68">
-        <f>MAX(F246:F257)</f>
-        <v>5</v>
+        <f>QUARTILE(F249:F260,1)</f>
+        <v>1</v>
       </c>
       <c r="C250" s="68">
-        <f>MAX(G246:G257)</f>
-        <v>5</v>
+        <f>QUARTILE(G249:G260,1)</f>
+        <v>2</v>
       </c>
       <c r="D250" s="68">
-        <f>MAX(H246:H257)</f>
+        <f>QUARTILE(H249:H260,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F250" s="1">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="G250" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="H250" s="1">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A251" s="62" t="s">
+        <v>294</v>
+      </c>
+      <c r="B251" s="68">
+        <f>MEDIAN(F249:F260)</f>
+        <v>2</v>
+      </c>
+      <c r="C251" s="68">
+        <f>MEDIAN(G249:G260)</f>
+        <v>3</v>
+      </c>
+      <c r="D251" s="68">
+        <f>MEDIAN(H249:H260)</f>
+        <v>2.5</v>
+      </c>
+      <c r="F251" s="1">
+        <f t="shared" si="31"/>
+        <v>2</v>
+      </c>
+      <c r="G251" s="1">
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
-      <c r="F250" s="1">
-        <f>SUM(F103,F175)</f>
-        <v>1</v>
-      </c>
-      <c r="G250" s="1">
-        <f>SUM(G103,G175)</f>
-        <v>3</v>
-      </c>
-      <c r="H250" s="1">
-        <f>SUM(H103,H175)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A251" s="62"/>
-      <c r="B251" s="68"/>
-      <c r="C251" s="68"/>
-      <c r="D251" s="68"/>
-      <c r="F251" s="1">
-        <f>SUM(F104,F176)</f>
-        <v>2</v>
-      </c>
-      <c r="G251" s="1">
-        <f>SUM(G104,G176)</f>
-        <v>4</v>
-      </c>
       <c r="H251" s="1">
-        <f>SUM(H104,H176)</f>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="62" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B252" s="68">
-        <f>B247-B246</f>
-        <v>1</v>
+        <f>QUARTILE(F249:F260,3)</f>
+        <v>2.25</v>
       </c>
       <c r="C252" s="68">
-        <f>C247-C246</f>
+        <f>QUARTILE(G249:G260,3)</f>
+        <v>4</v>
+      </c>
+      <c r="D252" s="68">
+        <f>QUARTILE(H249:H260,3)</f>
+        <v>3.25</v>
+      </c>
+      <c r="F252" s="1">
+        <f t="shared" si="31"/>
+        <v>5</v>
+      </c>
+      <c r="G252" s="1">
+        <f t="shared" si="31"/>
+        <v>5</v>
+      </c>
+      <c r="H252" s="1">
+        <f t="shared" si="31"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A253" s="62" t="s">
+        <v>296</v>
+      </c>
+      <c r="B253" s="68">
+        <f>MAX(F249:F260)</f>
+        <v>5</v>
+      </c>
+      <c r="C253" s="68">
+        <f>MAX(G249:G260)</f>
+        <v>5</v>
+      </c>
+      <c r="D253" s="68">
+        <f>MAX(H249:H260)</f>
+        <v>4</v>
+      </c>
+      <c r="F253" s="1">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="G253" s="1">
+        <f t="shared" si="31"/>
+        <v>3</v>
+      </c>
+      <c r="H253" s="1">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A254" s="62"/>
+      <c r="B254" s="68"/>
+      <c r="C254" s="68"/>
+      <c r="D254" s="68"/>
+      <c r="F254" s="1">
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
-      <c r="D252" s="68">
-        <f>D247-D246</f>
-        <v>1</v>
-      </c>
-      <c r="F252" s="1">
-        <f>SUM(F105,F177)</f>
-        <v>2</v>
-      </c>
-      <c r="G252" s="1">
-        <f>SUM(G105,G177)</f>
+      <c r="G254" s="1">
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
-      <c r="H252" s="1">
-        <f>SUM(H105,H177)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A253" s="62" t="str">
-        <f>A247</f>
-        <v>Q1</v>
-      </c>
-      <c r="B253" s="68">
-        <f>B247</f>
-        <v>1</v>
-      </c>
-      <c r="C253" s="68">
-        <f>C247</f>
-        <v>2</v>
-      </c>
-      <c r="D253" s="68">
-        <f>D247</f>
-        <v>1</v>
-      </c>
-      <c r="F253" s="1">
-        <f>SUM(F106,F178)</f>
-        <v>3</v>
-      </c>
-      <c r="G253" s="1">
-        <f>SUM(G106,G178)</f>
-        <v>3</v>
-      </c>
-      <c r="H253" s="1">
-        <f>SUM(H106,H178)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A254" s="62" t="s">
-        <v>298</v>
-      </c>
-      <c r="B254" s="68">
-        <f t="shared" ref="B254:D254" si="25">B248-B247</f>
-        <v>1</v>
-      </c>
-      <c r="C254" s="68">
-        <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="D254" s="68">
-        <f t="shared" si="25"/>
-        <v>1.5</v>
-      </c>
-      <c r="F254" s="1">
-        <f>SUM(F107,F179)</f>
-        <v>1</v>
-      </c>
-      <c r="G254" s="1">
-        <f>SUM(G107,G179)</f>
-        <v>0</v>
-      </c>
       <c r="H254" s="1">
-        <f>SUM(H107,H179)</f>
-        <v>3</v>
+        <f t="shared" si="31"/>
+        <v>4</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="62" t="s">
+        <v>297</v>
+      </c>
+      <c r="B255" s="68">
+        <f>B250-B249</f>
+        <v>1</v>
+      </c>
+      <c r="C255" s="68">
+        <f>C250-C249</f>
+        <v>2</v>
+      </c>
+      <c r="D255" s="68">
+        <f>D250-D249</f>
+        <v>1</v>
+      </c>
+      <c r="F255" s="1">
+        <f t="shared" si="31"/>
+        <v>2</v>
+      </c>
+      <c r="G255" s="1">
+        <f t="shared" si="31"/>
+        <v>4</v>
+      </c>
+      <c r="H255" s="1">
+        <f t="shared" si="31"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A256" s="62" t="str">
+        <f>A250</f>
+        <v>Q1</v>
+      </c>
+      <c r="B256" s="68">
+        <f>B250</f>
+        <v>1</v>
+      </c>
+      <c r="C256" s="68">
+        <f>C250</f>
+        <v>2</v>
+      </c>
+      <c r="D256" s="68">
+        <f>D250</f>
+        <v>1</v>
+      </c>
+      <c r="F256" s="1">
+        <f t="shared" si="31"/>
+        <v>3</v>
+      </c>
+      <c r="G256" s="1">
+        <f t="shared" si="31"/>
+        <v>3</v>
+      </c>
+      <c r="H256" s="1">
+        <f t="shared" si="31"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A257" s="62" t="s">
+        <v>298</v>
+      </c>
+      <c r="B257" s="68">
+        <f t="shared" ref="B257:D257" si="32">B251-B250</f>
+        <v>1</v>
+      </c>
+      <c r="C257" s="68">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="D257" s="68">
+        <f t="shared" si="32"/>
+        <v>1.5</v>
+      </c>
+      <c r="F257" s="1">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="G257" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="H257" s="1">
+        <f t="shared" si="31"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A258" s="62" t="s">
         <v>299</v>
       </c>
-      <c r="B255" s="68">
-        <f t="shared" ref="B255:D255" si="26">B249-B248</f>
+      <c r="B258" s="68">
+        <f t="shared" ref="B258:D258" si="33">B252-B251</f>
         <v>0.25</v>
       </c>
-      <c r="C255" s="68">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="D255" s="68">
-        <f t="shared" si="26"/>
+      <c r="C258" s="68">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="D258" s="68">
+        <f t="shared" si="33"/>
         <v>0.75</v>
       </c>
-      <c r="F255" s="1">
-        <f>SUM(F108,F180)</f>
+      <c r="F258" s="1">
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
-      <c r="G255" s="1">
-        <f>SUM(G108,G180)</f>
+      <c r="G258" s="1">
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
-      <c r="H255" s="1">
-        <f>SUM(H108,H180)</f>
+      <c r="H258" s="1">
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A256" s="62" t="s">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A259" s="62" t="s">
         <v>300</v>
       </c>
-      <c r="B256" s="68">
-        <f t="shared" ref="B256:D256" si="27">B250-B249</f>
+      <c r="B259" s="68">
+        <f t="shared" ref="B259:D259" si="34">B253-B252</f>
         <v>2.75</v>
       </c>
-      <c r="C256" s="68">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="D256" s="68">
-        <f t="shared" si="27"/>
+      <c r="C259" s="68">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="D259" s="68">
+        <f t="shared" si="34"/>
         <v>0.75</v>
       </c>
-      <c r="F256" s="1">
-        <f>SUM(F109,F181)</f>
-        <v>0</v>
-      </c>
-      <c r="G256" s="1">
-        <f>SUM(G109,G181)</f>
+      <c r="F259" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G259" s="1">
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
-      <c r="H256" s="1">
-        <f>SUM(H109,H181)</f>
+      <c r="H259" s="1">
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F257" s="1">
-        <f>SUM(F110,F182)</f>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F260" s="1">
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
-      <c r="G257" s="1">
-        <f>SUM(G110,G182)</f>
+      <c r="G260" s="1">
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
-      <c r="H257" s="1">
-        <f>SUM(H110,H182)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F258" s="1" t="s">
+      <c r="H260" s="1">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F261" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="G258" s="1" t="s">
+      <c r="G261" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="H258" s="1" t="s">
+      <c r="H261" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E259" s="1" t="s">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E262" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="F259" s="1">
-        <f>TTEST(F246:F257,H246:H257,1,1)</f>
-        <v>0.22370402640997239</v>
-      </c>
-      <c r="G259" s="1">
-        <f>TTEST(F246:F257,G246:G257,1,1)</f>
-        <v>4.8006832828037145E-2</v>
-      </c>
-      <c r="H259" s="1">
-        <f>TTEST(H246:H257,G246:G257,1,1)</f>
-        <v>0.16940034809810084</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
+      <c r="F262" s="1">
+        <f>TTEST(F249:F260,H249:H260,1,3)</f>
+        <v>0.22740978461746481</v>
+      </c>
+      <c r="G262" s="1">
+        <f>TTEST(F249:F260,G249:G260,1,3)</f>
+        <v>8.8876755584925304E-2</v>
+      </c>
+      <c r="H262" s="1">
+        <f>TTEST(H249:H260,G249:G260,1,3)</f>
+        <v>0.25050164544609077</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F263" s="1" t="s">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F266" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="G263" s="1"/>
-      <c r="H263" s="1"/>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A264" s="62" t="s">
-        <v>320</v>
-      </c>
-      <c r="B264" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="C264" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="D264" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="F264" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G264" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="H264" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A265" s="62" t="s">
-        <v>292</v>
-      </c>
-      <c r="B265" s="68">
-        <f>MIN(F265:F276)</f>
-        <v>1</v>
-      </c>
-      <c r="C265" s="68">
-        <f>MIN(G265:G276)</f>
-        <v>2</v>
-      </c>
-      <c r="D265" s="68">
-        <f>MIN(H265:H276)</f>
-        <v>2</v>
-      </c>
-      <c r="F265" s="1">
-        <f>SUM(F119,F189)</f>
-        <v>3</v>
-      </c>
-      <c r="G265" s="1">
-        <f>SUM(G119,G189)</f>
-        <v>3</v>
-      </c>
-      <c r="H265" s="1">
-        <f>SUM(H119,H189)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A266" s="62" t="s">
-        <v>293</v>
-      </c>
-      <c r="B266" s="68">
-        <f>QUARTILE(F265:F276,1)</f>
-        <v>3.75</v>
-      </c>
-      <c r="C266" s="68">
-        <f>QUARTILE(G265:G276,1)</f>
-        <v>4.75</v>
-      </c>
-      <c r="D266" s="68">
-        <f>QUARTILE(H265:H276,1)</f>
-        <v>4.75</v>
-      </c>
-      <c r="F266" s="1">
-        <f>SUM(F120,F190)</f>
-        <v>1</v>
-      </c>
-      <c r="G266" s="1">
-        <f>SUM(G120,G190)</f>
-        <v>2</v>
-      </c>
-      <c r="H266" s="1">
-        <f>SUM(H120,H190)</f>
-        <v>2</v>
-      </c>
+      <c r="G266" s="1"/>
+      <c r="H266" s="1"/>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="62" t="s">
-        <v>294</v>
-      </c>
-      <c r="B267" s="68">
-        <f>MEDIAN(F265:F276)</f>
-        <v>5</v>
-      </c>
-      <c r="C267" s="68">
-        <f>MEDIAN(G265:G276)</f>
+        <v>320</v>
+      </c>
+      <c r="B267" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="D267" s="68">
-        <f>MEDIAN(H265:H276)</f>
-        <v>5.5</v>
-      </c>
-      <c r="F267" s="1">
-        <f>SUM(F121,F191)</f>
+      <c r="C267" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="D267" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="F267" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G267" s="1">
-        <f>SUM(G121,G191)</f>
-        <v>6</v>
-      </c>
-      <c r="H267" s="1">
-        <f>SUM(H121,H191)</f>
-        <v>6</v>
+      <c r="G267" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H267" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="62" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B268" s="68">
-        <f>QUARTILE(F265:F276,3)</f>
-        <v>6</v>
+        <f>MIN(F268:F279)</f>
+        <v>1</v>
       </c>
       <c r="C268" s="68">
-        <f>QUARTILE(G265:G276,3)</f>
-        <v>6</v>
+        <f>MIN(G268:G279)</f>
+        <v>2</v>
       </c>
       <c r="D268" s="68">
-        <f>QUARTILE(H265:H276,3)</f>
-        <v>6</v>
+        <f>MIN(H268:H279)</f>
+        <v>2</v>
       </c>
       <c r="F268" s="1">
-        <f>SUM(F122,F192)</f>
-        <v>6</v>
+        <f t="shared" ref="F268:H279" si="35">SUM(F122,F192)</f>
+        <v>3</v>
       </c>
       <c r="G268" s="1">
-        <f>SUM(G122,G192)</f>
-        <v>6</v>
+        <f t="shared" si="35"/>
+        <v>3</v>
       </c>
       <c r="H268" s="1">
-        <f>SUM(H122,H192)</f>
+        <f t="shared" si="35"/>
         <v>6</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="62" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B269" s="68">
-        <f>MAX(F265:F276)</f>
+        <f>QUARTILE(F268:F279,1)</f>
+        <v>3.75</v>
+      </c>
+      <c r="C269" s="68">
+        <f>QUARTILE(G268:G279,1)</f>
+        <v>4.75</v>
+      </c>
+      <c r="D269" s="68">
+        <f>QUARTILE(H268:H279,1)</f>
+        <v>4.75</v>
+      </c>
+      <c r="F269" s="1">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="G269" s="1">
+        <f t="shared" si="35"/>
+        <v>2</v>
+      </c>
+      <c r="H269" s="1">
+        <f t="shared" si="35"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A270" s="62" t="s">
+        <v>294</v>
+      </c>
+      <c r="B270" s="68">
+        <f>MEDIAN(F268:F279)</f>
+        <v>5</v>
+      </c>
+      <c r="C270" s="68">
+        <f>MEDIAN(G268:G279)</f>
         <v>6</v>
       </c>
-      <c r="C269" s="68">
-        <f>MAX(G265:G276)</f>
+      <c r="D270" s="68">
+        <f>MEDIAN(H268:H279)</f>
+        <v>5.5</v>
+      </c>
+      <c r="F270" s="1">
+        <f t="shared" si="35"/>
         <v>6</v>
       </c>
-      <c r="D269" s="68">
-        <f>MAX(H265:H276)</f>
+      <c r="G270" s="1">
+        <f t="shared" si="35"/>
         <v>6</v>
       </c>
-      <c r="F269" s="1">
-        <f>SUM(F123,F193)</f>
+      <c r="H270" s="1">
+        <f t="shared" si="35"/>
         <v>6</v>
-      </c>
-      <c r="G269" s="1">
-        <f>SUM(G123,G193)</f>
-        <v>5</v>
-      </c>
-      <c r="H269" s="1">
-        <f>SUM(H123,H193)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A270" s="62"/>
-      <c r="B270" s="68"/>
-      <c r="C270" s="68"/>
-      <c r="D270" s="68"/>
-      <c r="F270" s="1">
-        <f>SUM(F124,F194)</f>
-        <v>5</v>
-      </c>
-      <c r="G270" s="1">
-        <f>SUM(G124,G194)</f>
-        <v>6</v>
-      </c>
-      <c r="H270" s="1">
-        <f>SUM(H124,H194)</f>
-        <v>5</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="62" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B271" s="68">
-        <f>B266-B265</f>
-        <v>2.75</v>
+        <f>QUARTILE(F268:F279,3)</f>
+        <v>6</v>
       </c>
       <c r="C271" s="68">
-        <f>C266-C265</f>
-        <v>2.75</v>
+        <f>QUARTILE(G268:G279,3)</f>
+        <v>6</v>
       </c>
       <c r="D271" s="68">
-        <f>D266-D265</f>
-        <v>2.75</v>
+        <f>QUARTILE(H268:H279,3)</f>
+        <v>6</v>
       </c>
       <c r="F271" s="1">
-        <f>SUM(F125,F195)</f>
+        <f t="shared" si="35"/>
+        <v>6</v>
+      </c>
+      <c r="G271" s="1">
+        <f t="shared" si="35"/>
+        <v>6</v>
+      </c>
+      <c r="H271" s="1">
+        <f t="shared" si="35"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A272" s="62" t="s">
+        <v>296</v>
+      </c>
+      <c r="B272" s="68">
+        <f>MAX(F268:F279)</f>
+        <v>6</v>
+      </c>
+      <c r="C272" s="68">
+        <f>MAX(G268:G279)</f>
+        <v>6</v>
+      </c>
+      <c r="D272" s="68">
+        <f>MAX(H268:H279)</f>
+        <v>6</v>
+      </c>
+      <c r="F272" s="1">
+        <f t="shared" si="35"/>
+        <v>6</v>
+      </c>
+      <c r="G272" s="1">
+        <f t="shared" si="35"/>
         <v>5</v>
       </c>
-      <c r="G271" s="1">
-        <f>SUM(G125,G195)</f>
+      <c r="H272" s="1">
+        <f t="shared" si="35"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A273" s="62"/>
+      <c r="B273" s="68"/>
+      <c r="C273" s="68"/>
+      <c r="D273" s="68"/>
+      <c r="F273" s="1">
+        <f t="shared" si="35"/>
+        <v>5</v>
+      </c>
+      <c r="G273" s="1">
+        <f t="shared" si="35"/>
         <v>6</v>
       </c>
-      <c r="H271" s="1">
-        <f>SUM(H125,H195)</f>
+      <c r="H273" s="1">
+        <f t="shared" si="35"/>
         <v>5</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A272" s="62" t="str">
-        <f>A266</f>
-        <v>Q1</v>
-      </c>
-      <c r="B272" s="68">
-        <f>B266</f>
-        <v>3.75</v>
-      </c>
-      <c r="C272" s="68">
-        <f>C266</f>
-        <v>4.75</v>
-      </c>
-      <c r="D272" s="68">
-        <f>D266</f>
-        <v>4.75</v>
-      </c>
-      <c r="F272" s="1">
-        <f>SUM(F126,F196)</f>
-        <v>6</v>
-      </c>
-      <c r="G272" s="1">
-        <f>SUM(G126,G196)</f>
-        <v>6</v>
-      </c>
-      <c r="H272" s="1">
-        <f>SUM(H126,H196)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A273" s="62" t="s">
-        <v>298</v>
-      </c>
-      <c r="B273" s="68">
-        <f t="shared" ref="B273:D273" si="28">B267-B266</f>
-        <v>1.25</v>
-      </c>
-      <c r="C273" s="68">
-        <f t="shared" si="28"/>
-        <v>1.25</v>
-      </c>
-      <c r="D273" s="68">
-        <f t="shared" si="28"/>
-        <v>0.75</v>
-      </c>
-      <c r="F273" s="1">
-        <f>SUM(F127,F197)</f>
-        <v>5</v>
-      </c>
-      <c r="G273" s="1">
-        <f>SUM(G127,G197)</f>
-        <v>5</v>
-      </c>
-      <c r="H273" s="1">
-        <f>SUM(H127,H197)</f>
-        <v>6</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="62" t="s">
+        <v>297</v>
+      </c>
+      <c r="B274" s="68">
+        <f>B269-B268</f>
+        <v>2.75</v>
+      </c>
+      <c r="C274" s="68">
+        <f>C269-C268</f>
+        <v>2.75</v>
+      </c>
+      <c r="D274" s="68">
+        <f>D269-D268</f>
+        <v>2.75</v>
+      </c>
+      <c r="F274" s="1">
+        <f t="shared" si="35"/>
+        <v>5</v>
+      </c>
+      <c r="G274" s="1">
+        <f t="shared" si="35"/>
+        <v>6</v>
+      </c>
+      <c r="H274" s="1">
+        <f t="shared" si="35"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A275" s="62" t="str">
+        <f>A269</f>
+        <v>Q1</v>
+      </c>
+      <c r="B275" s="68">
+        <f>B269</f>
+        <v>3.75</v>
+      </c>
+      <c r="C275" s="68">
+        <f>C269</f>
+        <v>4.75</v>
+      </c>
+      <c r="D275" s="68">
+        <f>D269</f>
+        <v>4.75</v>
+      </c>
+      <c r="F275" s="1">
+        <f t="shared" si="35"/>
+        <v>6</v>
+      </c>
+      <c r="G275" s="1">
+        <f t="shared" si="35"/>
+        <v>6</v>
+      </c>
+      <c r="H275" s="1">
+        <f t="shared" si="35"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A276" s="62" t="s">
+        <v>298</v>
+      </c>
+      <c r="B276" s="68">
+        <f t="shared" ref="B276:D276" si="36">B270-B269</f>
+        <v>1.25</v>
+      </c>
+      <c r="C276" s="68">
+        <f t="shared" si="36"/>
+        <v>1.25</v>
+      </c>
+      <c r="D276" s="68">
+        <f t="shared" si="36"/>
+        <v>0.75</v>
+      </c>
+      <c r="F276" s="1">
+        <f t="shared" si="35"/>
+        <v>5</v>
+      </c>
+      <c r="G276" s="1">
+        <f t="shared" si="35"/>
+        <v>5</v>
+      </c>
+      <c r="H276" s="1">
+        <f t="shared" si="35"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A277" s="62" t="s">
         <v>299</v>
       </c>
-      <c r="B274" s="68">
-        <f t="shared" ref="B274:D274" si="29">B268-B267</f>
-        <v>1</v>
-      </c>
-      <c r="C274" s="68">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="D274" s="68">
-        <f t="shared" si="29"/>
+      <c r="B277" s="68">
+        <f t="shared" ref="B277:D277" si="37">B271-B270</f>
+        <v>1</v>
+      </c>
+      <c r="C277" s="68">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="D277" s="68">
+        <f t="shared" si="37"/>
         <v>0.5</v>
       </c>
-      <c r="F274" s="1">
-        <f>SUM(F128,F198)</f>
+      <c r="F277" s="1">
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
-      <c r="G274" s="1">
-        <f>SUM(G128,G198)</f>
+      <c r="G277" s="1">
+        <f t="shared" si="35"/>
         <v>6</v>
       </c>
-      <c r="H274" s="1">
-        <f>SUM(H128,H198)</f>
+      <c r="H277" s="1">
+        <f t="shared" si="35"/>
         <v>6</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A275" s="62" t="s">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A278" s="62" t="s">
         <v>300</v>
       </c>
-      <c r="B275" s="68">
-        <f t="shared" ref="B275:D275" si="30">B269-B268</f>
-        <v>0</v>
-      </c>
-      <c r="C275" s="68">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="D275" s="68">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="F275" s="1">
-        <f>SUM(F129,F199)</f>
+      <c r="B278" s="68">
+        <f t="shared" ref="B278:D278" si="38">B272-B271</f>
+        <v>0</v>
+      </c>
+      <c r="C278" s="68">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="D278" s="68">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="F278" s="1">
+        <f t="shared" si="35"/>
         <v>3</v>
       </c>
-      <c r="G275" s="1">
-        <f>SUM(G129,G199)</f>
+      <c r="G278" s="1">
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
-      <c r="H275" s="1">
-        <f>SUM(H129,H199)</f>
+      <c r="H278" s="1">
+        <f t="shared" si="35"/>
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F276" s="1">
-        <f>SUM(F130,F200)</f>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F279" s="1">
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
-      <c r="G276" s="1">
-        <f>SUM(G130,G200)</f>
+      <c r="G279" s="1">
+        <f t="shared" si="35"/>
         <v>6</v>
       </c>
-      <c r="H276" s="1">
-        <f>SUM(H130,H200)</f>
+      <c r="H279" s="1">
+        <f t="shared" si="35"/>
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F277" s="1" t="s">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F280" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="G277" s="1" t="s">
+      <c r="G280" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="H277" s="1" t="s">
+      <c r="H280" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E278" s="1" t="s">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E281" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="F278" s="1">
-        <f>TTEST(F265:F276,H265:H276,1,1)</f>
-        <v>9.5527149048284632E-2</v>
-      </c>
-      <c r="G278" s="1">
-        <f>TTEST(F265:F276,G265:G276,1,1)</f>
-        <v>2.3170824298802142E-2</v>
-      </c>
-      <c r="H278" s="1">
-        <f>TTEST(H265:H276,G265:G276,1,1)</f>
-        <v>0.40439068116310323</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
+      <c r="F281" s="1">
+        <f>TTEST(F268:F279,H268:H279,1,3)</f>
+        <v>0.20563946319428511</v>
+      </c>
+      <c r="G281" s="1">
+        <f>TTEST(F268:F279,G268:G279,1,3)</f>
+        <v>0.17182073822722399</v>
+      </c>
+      <c r="H281" s="1">
+        <f>TTEST(H268:H279,G268:G279,1,3)</f>
+        <v>0.44119184811928952</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F281" s="1" t="s">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F284" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="G281" s="1"/>
-      <c r="H281" s="1"/>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A282" s="62" t="s">
-        <v>291</v>
-      </c>
-      <c r="B282" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="C282" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="D282" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="F282" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G282" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="H282" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A283" s="62" t="s">
-        <v>292</v>
-      </c>
-      <c r="B283" s="68">
-        <f>MIN(F283:F294)</f>
-        <v>1</v>
-      </c>
-      <c r="C283" s="68">
-        <f>MIN(G283:G294)</f>
-        <v>0</v>
-      </c>
-      <c r="D283" s="68">
-        <f>MIN(H283:H294)</f>
-        <v>0</v>
-      </c>
-      <c r="F283" s="1">
-        <f>SUM(F99,F136,F171)</f>
-        <v>1</v>
-      </c>
-      <c r="G283" s="1">
-        <f>SUM(G99,G136,G171)</f>
-        <v>2</v>
-      </c>
-      <c r="H283" s="1">
-        <f>SUM(H99,H136,H171)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A284" s="62" t="s">
-        <v>293</v>
-      </c>
-      <c r="B284" s="68">
-        <f>QUARTILE(F283:F294,1)</f>
-        <v>1</v>
-      </c>
-      <c r="C284" s="68">
-        <f>QUARTILE(G283:G294,1)</f>
-        <v>2</v>
-      </c>
-      <c r="D284" s="68">
-        <f>QUARTILE(H283:H294,1)</f>
-        <v>1</v>
-      </c>
-      <c r="F284" s="1">
-        <f>SUM(F100,F137,F172)</f>
-        <v>1</v>
-      </c>
-      <c r="G284" s="1">
-        <f>SUM(G100,G137,G172)</f>
-        <v>1</v>
-      </c>
-      <c r="H284" s="1">
-        <f>SUM(H100,H137,H172)</f>
-        <v>1</v>
-      </c>
+      <c r="G284" s="1"/>
+      <c r="H284" s="1"/>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="62" t="s">
-        <v>294</v>
-      </c>
-      <c r="B285" s="68">
-        <f>MEDIAN(F283:F294)</f>
-        <v>2</v>
-      </c>
-      <c r="C285" s="68">
-        <f>MEDIAN(G283:G294)</f>
-        <v>3</v>
-      </c>
-      <c r="D285" s="68">
-        <f>MEDIAN(H283:H294)</f>
-        <v>3</v>
-      </c>
-      <c r="F285" s="1">
-        <f>SUM(F101,F138,F173)</f>
-        <v>3</v>
-      </c>
-      <c r="G285" s="1">
-        <f>SUM(G101,G138,G173)</f>
-        <v>5</v>
-      </c>
-      <c r="H285" s="1">
-        <f>SUM(H101,H138,H173)</f>
-        <v>4</v>
+        <v>291</v>
+      </c>
+      <c r="B285" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C285" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="D285" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="F285" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G285" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H285" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="62" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B286" s="68">
-        <f>QUARTILE(F283:F294,3)</f>
-        <v>3</v>
+        <f>MIN(F286:F297)</f>
+        <v>1</v>
       </c>
       <c r="C286" s="68">
-        <f>QUARTILE(G283:G294,3)</f>
-        <v>4</v>
+        <f>MIN(G286:G297)</f>
+        <v>0</v>
       </c>
       <c r="D286" s="68">
-        <f>QUARTILE(H283:H294,3)</f>
-        <v>3.25</v>
+        <f>MIN(H286:H297)</f>
+        <v>0</v>
       </c>
       <c r="F286" s="1">
-        <f>SUM(F102,F139,F174)</f>
-        <v>5</v>
+        <f t="shared" ref="F286:H297" si="39">SUM(F102,F139,F174)</f>
+        <v>1</v>
       </c>
       <c r="G286" s="1">
-        <f>SUM(G102,G139,G174)</f>
-        <v>5</v>
+        <f t="shared" si="39"/>
+        <v>2</v>
       </c>
       <c r="H286" s="1">
-        <f>SUM(H102,H139,H174)</f>
-        <v>3</v>
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="62" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B287" s="68">
-        <f>MAX(F283:F294)</f>
+        <f>QUARTILE(F286:F297,1)</f>
+        <v>1</v>
+      </c>
+      <c r="C287" s="68">
+        <f>QUARTILE(G286:G297,1)</f>
+        <v>2</v>
+      </c>
+      <c r="D287" s="68">
+        <f>QUARTILE(H286:H297,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F287" s="1">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="G287" s="1">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="H287" s="1">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A288" s="62" t="s">
+        <v>294</v>
+      </c>
+      <c r="B288" s="68">
+        <f>MEDIAN(F286:F297)</f>
+        <v>2</v>
+      </c>
+      <c r="C288" s="68">
+        <f>MEDIAN(G286:G297)</f>
+        <v>3</v>
+      </c>
+      <c r="D288" s="68">
+        <f>MEDIAN(H286:H297)</f>
+        <v>3</v>
+      </c>
+      <c r="F288" s="1">
+        <f t="shared" si="39"/>
+        <v>3</v>
+      </c>
+      <c r="G288" s="1">
+        <f t="shared" si="39"/>
         <v>5</v>
       </c>
-      <c r="C287" s="68">
-        <f>MAX(G283:G294)</f>
-        <v>5</v>
-      </c>
-      <c r="D287" s="68">
-        <f>MAX(H283:H294)</f>
-        <v>5</v>
-      </c>
-      <c r="F287" s="1">
-        <f>SUM(F103,F140,F175)</f>
-        <v>1</v>
-      </c>
-      <c r="G287" s="1">
-        <f>SUM(G103,G140,G175)</f>
-        <v>3</v>
-      </c>
-      <c r="H287" s="1">
-        <f>SUM(H103,H140,H175)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A288" s="62"/>
-      <c r="B288" s="68"/>
-      <c r="C288" s="68"/>
-      <c r="D288" s="68"/>
-      <c r="F288" s="1">
-        <f>SUM(F104,F141,F176)</f>
-        <v>2</v>
-      </c>
-      <c r="G288" s="1">
-        <f>SUM(G104,G141,G176)</f>
-        <v>4</v>
-      </c>
       <c r="H288" s="1">
-        <f>SUM(H104,H141,H176)</f>
+        <f t="shared" si="39"/>
         <v>4</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="62" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B289" s="68">
-        <f>B284-B283</f>
-        <v>0</v>
+        <f>QUARTILE(F286:F297,3)</f>
+        <v>3</v>
       </c>
       <c r="C289" s="68">
-        <f>C284-C283</f>
+        <f>QUARTILE(G286:G297,3)</f>
+        <v>4</v>
+      </c>
+      <c r="D289" s="68">
+        <f>QUARTILE(H286:H297,3)</f>
+        <v>3.25</v>
+      </c>
+      <c r="F289" s="1">
+        <f t="shared" si="39"/>
+        <v>5</v>
+      </c>
+      <c r="G289" s="1">
+        <f t="shared" si="39"/>
+        <v>5</v>
+      </c>
+      <c r="H289" s="1">
+        <f t="shared" si="39"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A290" s="62" t="s">
+        <v>296</v>
+      </c>
+      <c r="B290" s="68">
+        <f>MAX(F286:F297)</f>
+        <v>5</v>
+      </c>
+      <c r="C290" s="68">
+        <f>MAX(G286:G297)</f>
+        <v>5</v>
+      </c>
+      <c r="D290" s="68">
+        <f>MAX(H286:H297)</f>
+        <v>5</v>
+      </c>
+      <c r="F290" s="1">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="G290" s="1">
+        <f t="shared" si="39"/>
+        <v>3</v>
+      </c>
+      <c r="H290" s="1">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A291" s="62"/>
+      <c r="B291" s="68"/>
+      <c r="C291" s="68"/>
+      <c r="D291" s="68"/>
+      <c r="F291" s="1">
+        <f t="shared" si="39"/>
         <v>2</v>
       </c>
-      <c r="D289" s="68">
-        <f>D284-D283</f>
-        <v>1</v>
-      </c>
-      <c r="F289" s="1">
-        <f>SUM(F105,F142,F177)</f>
-        <v>2</v>
-      </c>
-      <c r="G289" s="1">
-        <f>SUM(G105,G142,G177)</f>
+      <c r="G291" s="1">
+        <f t="shared" si="39"/>
         <v>4</v>
       </c>
-      <c r="H289" s="1">
-        <f>SUM(H105,H142,H177)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A290" s="62" t="str">
-        <f>A284</f>
-        <v>Q1</v>
-      </c>
-      <c r="B290" s="68">
-        <f>B284</f>
-        <v>1</v>
-      </c>
-      <c r="C290" s="68">
-        <f>C284</f>
-        <v>2</v>
-      </c>
-      <c r="D290" s="68">
-        <f>D284</f>
-        <v>1</v>
-      </c>
-      <c r="F290" s="1">
-        <f>SUM(F106,F143,F178)</f>
-        <v>3</v>
-      </c>
-      <c r="G290" s="1">
-        <f>SUM(G106,G143,G178)</f>
-        <v>3</v>
-      </c>
-      <c r="H290" s="1">
-        <f>SUM(H106,H143,H178)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A291" s="62" t="s">
-        <v>298</v>
-      </c>
-      <c r="B291" s="68">
-        <f t="shared" ref="B291:D291" si="31">B285-B284</f>
-        <v>1</v>
-      </c>
-      <c r="C291" s="68">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="D291" s="68">
-        <f t="shared" si="31"/>
-        <v>2</v>
-      </c>
-      <c r="F291" s="1">
-        <f>SUM(F107,F144,F179)</f>
-        <v>1</v>
-      </c>
-      <c r="G291" s="1">
-        <f>SUM(G107,G144,G179)</f>
-        <v>0</v>
-      </c>
       <c r="H291" s="1">
-        <f>SUM(H107,H144,H179)</f>
-        <v>3</v>
+        <f t="shared" si="39"/>
+        <v>4</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="62" t="s">
+        <v>297</v>
+      </c>
+      <c r="B292" s="68">
+        <f>B287-B286</f>
+        <v>0</v>
+      </c>
+      <c r="C292" s="68">
+        <f>C287-C286</f>
+        <v>2</v>
+      </c>
+      <c r="D292" s="68">
+        <f>D287-D286</f>
+        <v>1</v>
+      </c>
+      <c r="F292" s="1">
+        <f t="shared" si="39"/>
+        <v>2</v>
+      </c>
+      <c r="G292" s="1">
+        <f t="shared" si="39"/>
+        <v>4</v>
+      </c>
+      <c r="H292" s="1">
+        <f t="shared" si="39"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A293" s="62" t="str">
+        <f>A287</f>
+        <v>Q1</v>
+      </c>
+      <c r="B293" s="68">
+        <f>B287</f>
+        <v>1</v>
+      </c>
+      <c r="C293" s="68">
+        <f>C287</f>
+        <v>2</v>
+      </c>
+      <c r="D293" s="68">
+        <f>D287</f>
+        <v>1</v>
+      </c>
+      <c r="F293" s="1">
+        <f t="shared" si="39"/>
+        <v>3</v>
+      </c>
+      <c r="G293" s="1">
+        <f t="shared" si="39"/>
+        <v>3</v>
+      </c>
+      <c r="H293" s="1">
+        <f t="shared" si="39"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A294" s="62" t="s">
+        <v>298</v>
+      </c>
+      <c r="B294" s="68">
+        <f t="shared" ref="B294:D294" si="40">B288-B287</f>
+        <v>1</v>
+      </c>
+      <c r="C294" s="68">
+        <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="D294" s="68">
+        <f t="shared" si="40"/>
+        <v>2</v>
+      </c>
+      <c r="F294" s="1">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="G294" s="1">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="H294" s="1">
+        <f t="shared" si="39"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A295" s="62" t="s">
         <v>299</v>
       </c>
-      <c r="B292" s="68">
-        <f t="shared" ref="B292:D292" si="32">B286-B285</f>
-        <v>1</v>
-      </c>
-      <c r="C292" s="68">
-        <f t="shared" si="32"/>
-        <v>1</v>
-      </c>
-      <c r="D292" s="68">
-        <f t="shared" si="32"/>
+      <c r="B295" s="68">
+        <f t="shared" ref="B295:D295" si="41">B289-B288</f>
+        <v>1</v>
+      </c>
+      <c r="C295" s="68">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+      <c r="D295" s="68">
+        <f t="shared" si="41"/>
         <v>0.25</v>
       </c>
-      <c r="F292" s="1">
-        <f>SUM(F108,F145,F180)</f>
+      <c r="F295" s="1">
+        <f t="shared" si="39"/>
         <v>2</v>
       </c>
-      <c r="G292" s="1">
-        <f>SUM(G108,G145,G180)</f>
+      <c r="G295" s="1">
+        <f t="shared" si="39"/>
         <v>2</v>
       </c>
-      <c r="H292" s="1">
-        <f>SUM(H108,H145,H180)</f>
+      <c r="H295" s="1">
+        <f t="shared" si="39"/>
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A293" s="62" t="s">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A296" s="62" t="s">
         <v>300</v>
       </c>
-      <c r="B293" s="68">
-        <f t="shared" ref="B293:D293" si="33">B287-B286</f>
+      <c r="B296" s="68">
+        <f t="shared" ref="B296:D296" si="42">B290-B289</f>
         <v>2</v>
       </c>
-      <c r="C293" s="68">
-        <f t="shared" si="33"/>
-        <v>1</v>
-      </c>
-      <c r="D293" s="68">
-        <f t="shared" si="33"/>
+      <c r="C296" s="68">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="D296" s="68">
+        <f t="shared" si="42"/>
         <v>1.75</v>
       </c>
-      <c r="F293" s="1">
-        <f>SUM(F109,F146,F181)</f>
+      <c r="F296" s="1">
+        <f t="shared" si="39"/>
         <v>2</v>
       </c>
-      <c r="G293" s="1">
-        <f>SUM(G109,G146,G181)</f>
+      <c r="G296" s="1">
+        <f t="shared" si="39"/>
         <v>4</v>
       </c>
-      <c r="H293" s="1">
-        <f>SUM(H109,H146,H181)</f>
+      <c r="H296" s="1">
+        <f t="shared" si="39"/>
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F294" s="1">
-        <f>SUM(F110,F147,F182)</f>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F297" s="1">
+        <f t="shared" si="39"/>
         <v>3</v>
       </c>
-      <c r="G294" s="1">
-        <f>SUM(G110,G147,G182)</f>
+      <c r="G297" s="1">
+        <f t="shared" si="39"/>
         <v>2</v>
       </c>
-      <c r="H294" s="1">
-        <f>SUM(H110,H147,H182)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F295" s="1" t="s">
+      <c r="H297" s="1">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F298" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="G295" s="1" t="s">
+      <c r="G298" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="H295" s="1" t="s">
+      <c r="H298" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E296" s="1" t="s">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E299" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="F296" s="1">
-        <f>TTEST(F283:F294,H283:H294,1,1)</f>
-        <v>0.2446695429557908</v>
-      </c>
-      <c r="G296" s="1">
-        <f>TTEST(F283:F294,G283:G294,1,1)</f>
-        <v>2.7919999362084277E-2</v>
-      </c>
-      <c r="H296" s="1">
-        <f>TTEST(H283:H294,G283:G294,1,1)</f>
-        <v>0.17907524282880544</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
+      <c r="F299" s="1">
+        <f>TTEST(F286:F297,H286:H297,1,3)</f>
+        <v>0.27729984258869411</v>
+      </c>
+      <c r="G299" s="1">
+        <f>TTEST(F286:F297,G286:G297,1,3)</f>
+        <v>0.10059333199592445</v>
+      </c>
+      <c r="H299" s="1">
+        <f>TTEST(H286:H297,G286:G297,1,3)</f>
+        <v>0.25667745190202096</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F300" s="1" t="s">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F303" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="G300" s="1"/>
-      <c r="H300" s="1"/>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A301" s="62" t="s">
-        <v>320</v>
-      </c>
-      <c r="B301" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="C301" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="D301" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="F301" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G301" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="H301" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A302" s="62" t="s">
-        <v>292</v>
-      </c>
-      <c r="B302" s="68">
-        <f>MIN(F302:F313)</f>
-        <v>2</v>
-      </c>
-      <c r="C302" s="68">
-        <f>MIN(G302:G313)</f>
-        <v>3</v>
-      </c>
-      <c r="D302" s="68">
-        <f>MIN(H302:H313)</f>
-        <v>3</v>
-      </c>
-      <c r="F302" s="1">
-        <f>SUM(F119,F154,F189)</f>
-        <v>3</v>
-      </c>
-      <c r="G302" s="1">
-        <f>SUM(G119,G154,G189)</f>
-        <v>4</v>
-      </c>
-      <c r="H302" s="1">
-        <f>SUM(H119,H154,H189)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A303" s="62" t="s">
-        <v>293</v>
-      </c>
-      <c r="B303" s="68">
-        <f>QUARTILE(F302:F313,1)</f>
-        <v>4</v>
-      </c>
-      <c r="C303" s="68">
-        <f>QUARTILE(G302:G313,1)</f>
-        <v>5</v>
-      </c>
-      <c r="D303" s="68">
-        <f>QUARTILE(H302:H313,1)</f>
-        <v>5</v>
-      </c>
-      <c r="F303" s="1">
-        <f>SUM(F120,F155,F190)</f>
-        <v>2</v>
-      </c>
-      <c r="G303" s="1">
-        <f>SUM(G120,G155,G190)</f>
-        <v>3</v>
-      </c>
-      <c r="H303" s="1">
-        <f>SUM(H120,H155,H190)</f>
-        <v>3</v>
-      </c>
+      <c r="G303" s="1"/>
+      <c r="H303" s="1"/>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="62" t="s">
-        <v>294</v>
-      </c>
-      <c r="B304" s="68">
-        <f>MEDIAN(F302:F313)</f>
-        <v>5.5</v>
-      </c>
-      <c r="C304" s="68">
-        <f>MEDIAN(G302:G313)</f>
+        <v>320</v>
+      </c>
+      <c r="B304" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="D304" s="68">
-        <f>MEDIAN(H302:H313)</f>
-        <v>5.5</v>
-      </c>
-      <c r="F304" s="1">
-        <f>SUM(F121,F156,F191)</f>
+      <c r="C304" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="D304" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="F304" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G304" s="1">
-        <f>SUM(G121,G156,G191)</f>
-        <v>6</v>
-      </c>
-      <c r="H304" s="1">
-        <f>SUM(H121,H156,H191)</f>
-        <v>6</v>
+      <c r="G304" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H304" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" s="62" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B305" s="68">
-        <f>QUARTILE(F302:F313,3)</f>
-        <v>6</v>
+        <f>MIN(F305:F316)</f>
+        <v>2</v>
       </c>
       <c r="C305" s="68">
-        <f>QUARTILE(G302:G313,3)</f>
-        <v>6</v>
+        <f>MIN(G305:G316)</f>
+        <v>3</v>
       </c>
       <c r="D305" s="68">
-        <f>QUARTILE(H302:H313,3)</f>
-        <v>6</v>
+        <f>MIN(H305:H316)</f>
+        <v>3</v>
       </c>
       <c r="F305" s="1">
-        <f>SUM(F122,F157,F192)</f>
-        <v>6</v>
+        <f t="shared" ref="F305:H316" si="43">SUM(F122,F157,F192)</f>
+        <v>3</v>
       </c>
       <c r="G305" s="1">
-        <f>SUM(G122,G157,G192)</f>
-        <v>6</v>
+        <f t="shared" si="43"/>
+        <v>4</v>
       </c>
       <c r="H305" s="1">
-        <f>SUM(H122,H157,H192)</f>
+        <f t="shared" si="43"/>
         <v>6</v>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" s="62" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B306" s="68">
-        <f>MAX(F302:F313)</f>
+        <f>QUARTILE(F305:F316,1)</f>
+        <v>4</v>
+      </c>
+      <c r="C306" s="68">
+        <f>QUARTILE(G305:G316,1)</f>
+        <v>5</v>
+      </c>
+      <c r="D306" s="68">
+        <f>QUARTILE(H305:H316,1)</f>
+        <v>5</v>
+      </c>
+      <c r="F306" s="1">
+        <f t="shared" si="43"/>
+        <v>2</v>
+      </c>
+      <c r="G306" s="1">
+        <f t="shared" si="43"/>
+        <v>3</v>
+      </c>
+      <c r="H306" s="1">
+        <f t="shared" si="43"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A307" s="62" t="s">
+        <v>294</v>
+      </c>
+      <c r="B307" s="68">
+        <f>MEDIAN(F305:F316)</f>
+        <v>5.5</v>
+      </c>
+      <c r="C307" s="68">
+        <f>MEDIAN(G305:G316)</f>
         <v>6</v>
       </c>
-      <c r="C306" s="68">
-        <f>MAX(G302:G313)</f>
+      <c r="D307" s="68">
+        <f>MEDIAN(H305:H316)</f>
+        <v>5.5</v>
+      </c>
+      <c r="F307" s="1">
+        <f t="shared" si="43"/>
         <v>6</v>
       </c>
-      <c r="D306" s="68">
-        <f>MAX(H302:H313)</f>
+      <c r="G307" s="1">
+        <f t="shared" si="43"/>
         <v>6</v>
       </c>
-      <c r="F306" s="1">
-        <f>SUM(F123,F158,F193)</f>
+      <c r="H307" s="1">
+        <f t="shared" si="43"/>
         <v>6</v>
-      </c>
-      <c r="G306" s="1">
-        <f>SUM(G123,G158,G193)</f>
-        <v>5</v>
-      </c>
-      <c r="H306" s="1">
-        <f>SUM(H123,H158,H193)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A307" s="62"/>
-      <c r="B307" s="68"/>
-      <c r="C307" s="68"/>
-      <c r="D307" s="68"/>
-      <c r="F307" s="1">
-        <f>SUM(F124,F159,F194)</f>
-        <v>5</v>
-      </c>
-      <c r="G307" s="1">
-        <f>SUM(G124,G159,G194)</f>
-        <v>6</v>
-      </c>
-      <c r="H307" s="1">
-        <f>SUM(H124,H159,H194)</f>
-        <v>5</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" s="62" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B308" s="68">
-        <f>B303-B302</f>
-        <v>2</v>
+        <f>QUARTILE(F305:F316,3)</f>
+        <v>6</v>
       </c>
       <c r="C308" s="68">
-        <f>C303-C302</f>
-        <v>2</v>
+        <f>QUARTILE(G305:G316,3)</f>
+        <v>6</v>
       </c>
       <c r="D308" s="68">
-        <f>D303-D302</f>
-        <v>2</v>
+        <f>QUARTILE(H305:H316,3)</f>
+        <v>6</v>
       </c>
       <c r="F308" s="1">
-        <f>SUM(F125,F160,F195)</f>
+        <f t="shared" si="43"/>
         <v>6</v>
       </c>
       <c r="G308" s="1">
-        <f>SUM(G125,G160,G195)</f>
+        <f t="shared" si="43"/>
         <v>6</v>
       </c>
       <c r="H308" s="1">
-        <f>SUM(H125,H160,H195)</f>
+        <f t="shared" si="43"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A309" s="62" t="s">
+        <v>296</v>
+      </c>
+      <c r="B309" s="68">
+        <f>MAX(F305:F316)</f>
+        <v>6</v>
+      </c>
+      <c r="C309" s="68">
+        <f>MAX(G305:G316)</f>
+        <v>6</v>
+      </c>
+      <c r="D309" s="68">
+        <f>MAX(H305:H316)</f>
+        <v>6</v>
+      </c>
+      <c r="F309" s="1">
+        <f t="shared" si="43"/>
+        <v>6</v>
+      </c>
+      <c r="G309" s="1">
+        <f t="shared" si="43"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A309" s="62" t="str">
-        <f>A303</f>
-        <v>Q1</v>
-      </c>
-      <c r="B309" s="68">
-        <f>B303</f>
+      <c r="H309" s="1">
+        <f t="shared" si="43"/>
         <v>4</v>
       </c>
-      <c r="C309" s="68">
-        <f>C303</f>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A310" s="62"/>
+      <c r="B310" s="68"/>
+      <c r="C310" s="68"/>
+      <c r="D310" s="68"/>
+      <c r="F310" s="1">
+        <f t="shared" si="43"/>
         <v>5</v>
       </c>
-      <c r="D309" s="68">
-        <f>D303</f>
+      <c r="G310" s="1">
+        <f t="shared" si="43"/>
+        <v>6</v>
+      </c>
+      <c r="H310" s="1">
+        <f t="shared" si="43"/>
         <v>5</v>
-      </c>
-      <c r="F309" s="1">
-        <f>SUM(F126,F161,F196)</f>
-        <v>6</v>
-      </c>
-      <c r="G309" s="1">
-        <f>SUM(G126,G161,G196)</f>
-        <v>6</v>
-      </c>
-      <c r="H309" s="1">
-        <f>SUM(H126,H161,H196)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A310" s="62" t="s">
-        <v>298</v>
-      </c>
-      <c r="B310" s="68">
-        <f t="shared" ref="B310:D310" si="34">B304-B303</f>
-        <v>1.5</v>
-      </c>
-      <c r="C310" s="68">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="D310" s="68">
-        <f t="shared" si="34"/>
-        <v>0.5</v>
-      </c>
-      <c r="F310" s="1">
-        <f>SUM(F127,F162,F197)</f>
-        <v>6</v>
-      </c>
-      <c r="G310" s="1">
-        <f>SUM(G127,G162,G197)</f>
-        <v>5</v>
-      </c>
-      <c r="H310" s="1">
-        <f>SUM(H127,H162,H197)</f>
-        <v>6</v>
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" s="62" t="s">
+        <v>297</v>
+      </c>
+      <c r="B311" s="68">
+        <f>B306-B305</f>
+        <v>2</v>
+      </c>
+      <c r="C311" s="68">
+        <f>C306-C305</f>
+        <v>2</v>
+      </c>
+      <c r="D311" s="68">
+        <f>D306-D305</f>
+        <v>2</v>
+      </c>
+      <c r="F311" s="1">
+        <f t="shared" si="43"/>
+        <v>6</v>
+      </c>
+      <c r="G311" s="1">
+        <f t="shared" si="43"/>
+        <v>6</v>
+      </c>
+      <c r="H311" s="1">
+        <f t="shared" si="43"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A312" s="62" t="str">
+        <f>A306</f>
+        <v>Q1</v>
+      </c>
+      <c r="B312" s="68">
+        <f>B306</f>
+        <v>4</v>
+      </c>
+      <c r="C312" s="68">
+        <f>C306</f>
+        <v>5</v>
+      </c>
+      <c r="D312" s="68">
+        <f>D306</f>
+        <v>5</v>
+      </c>
+      <c r="F312" s="1">
+        <f t="shared" si="43"/>
+        <v>6</v>
+      </c>
+      <c r="G312" s="1">
+        <f t="shared" si="43"/>
+        <v>6</v>
+      </c>
+      <c r="H312" s="1">
+        <f t="shared" si="43"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A313" s="62" t="s">
+        <v>298</v>
+      </c>
+      <c r="B313" s="68">
+        <f t="shared" ref="B313:D313" si="44">B307-B306</f>
+        <v>1.5</v>
+      </c>
+      <c r="C313" s="68">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="D313" s="68">
+        <f t="shared" si="44"/>
+        <v>0.5</v>
+      </c>
+      <c r="F313" s="1">
+        <f t="shared" si="43"/>
+        <v>6</v>
+      </c>
+      <c r="G313" s="1">
+        <f t="shared" si="43"/>
+        <v>5</v>
+      </c>
+      <c r="H313" s="1">
+        <f t="shared" si="43"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A314" s="62" t="s">
         <v>299</v>
       </c>
-      <c r="B311" s="68">
-        <f t="shared" ref="B311:D311" si="35">B305-B304</f>
+      <c r="B314" s="68">
+        <f t="shared" ref="B314:D314" si="45">B308-B307</f>
         <v>0.5</v>
       </c>
-      <c r="C311" s="68">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="D311" s="68">
-        <f t="shared" si="35"/>
+      <c r="C314" s="68">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="D314" s="68">
+        <f t="shared" si="45"/>
         <v>0.5</v>
       </c>
-      <c r="F311" s="1">
-        <f>SUM(F128,F163,F198)</f>
+      <c r="F314" s="1">
+        <f t="shared" si="43"/>
         <v>4</v>
       </c>
-      <c r="G311" s="1">
-        <f>SUM(G128,G163,G198)</f>
+      <c r="G314" s="1">
+        <f t="shared" si="43"/>
         <v>6</v>
       </c>
-      <c r="H311" s="1">
-        <f>SUM(H128,H163,H198)</f>
+      <c r="H314" s="1">
+        <f t="shared" si="43"/>
         <v>6</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A312" s="62" t="s">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A315" s="62" t="s">
         <v>300</v>
       </c>
-      <c r="B312" s="68">
-        <f t="shared" ref="B312:D312" si="36">B306-B305</f>
-        <v>0</v>
-      </c>
-      <c r="C312" s="68">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="D312" s="68">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="F312" s="1">
-        <f>SUM(F129,F164,F199)</f>
+      <c r="B315" s="68">
+        <f t="shared" ref="B315:D315" si="46">B309-B308</f>
+        <v>0</v>
+      </c>
+      <c r="C315" s="68">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="D315" s="68">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="F315" s="1">
+        <f t="shared" si="43"/>
         <v>5</v>
       </c>
-      <c r="G312" s="1">
-        <f>SUM(G129,G164,G199)</f>
+      <c r="G315" s="1">
+        <f t="shared" si="43"/>
         <v>5</v>
       </c>
-      <c r="H312" s="1">
-        <f>SUM(H129,H164,H199)</f>
+      <c r="H315" s="1">
+        <f t="shared" si="43"/>
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F313" s="1">
-        <f>SUM(F130,F165,F200)</f>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F316" s="1">
+        <f t="shared" si="43"/>
         <v>4</v>
       </c>
-      <c r="G313" s="1">
-        <f>SUM(G130,G165,G200)</f>
+      <c r="G316" s="1">
+        <f t="shared" si="43"/>
         <v>6</v>
       </c>
-      <c r="H313" s="1">
-        <f>SUM(H130,H165,H200)</f>
+      <c r="H316" s="1">
+        <f t="shared" si="43"/>
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F314" s="1" t="s">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F317" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="G314" s="1" t="s">
+      <c r="G317" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="H314" s="1" t="s">
+      <c r="H317" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E315" t="s">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E318" t="s">
         <v>319</v>
       </c>
-      <c r="F315" s="1">
-        <f>TTEST(F302:F313,H302:H313,1,1)</f>
-        <v>0.19718265584798278</v>
-      </c>
-      <c r="G315" s="1">
-        <f>TTEST(F302:F313,G302:G313,1,1)</f>
-        <v>8.7636823504459394E-2</v>
-      </c>
-      <c r="H315" s="1">
-        <f>TTEST(H302:H313,G302:G313,1,1)</f>
-        <v>0.3772496735113342</v>
+      <c r="F318" s="1">
+        <f>TTEST(F305:F316,H305:H316,1,3)</f>
+        <v>0.25035694148095344</v>
+      </c>
+      <c r="G318" s="1">
+        <f>TTEST(F305:F316,G305:G316,1,3)</f>
+        <v>0.20222411441137922</v>
+      </c>
+      <c r="H318" s="1">
+        <f>TTEST(H305:H316,G305:G316,1,3)</f>
+        <v>0.41805361160506355</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>